--- a/Bases_de_Dados_(2022-2023)/Bosnia and Herzegovina Premier League of Bosnia_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bosnia and Herzegovina Premier League of Bosnia_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="215">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -505,6 +505,12 @@
     <t>['29']</t>
   </si>
   <si>
+    <t>['6', '54']</t>
+  </si>
+  <si>
+    <t>['22', '35', '73']</t>
+  </si>
+  <si>
     <t>['68']</t>
   </si>
   <si>
@@ -650,6 +656,9 @@
   </si>
   <si>
     <t>['19', '35', '61']</t>
+  </si>
+  <si>
+    <t>['26', '73', '82']</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1020,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK127"/>
+  <dimension ref="A1:BK133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1255,7 +1264,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1342,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT2">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1533,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT3">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1727,7 +1736,7 @@
         <v>1.73</v>
       </c>
       <c r="AT4">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1828,7 +1837,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1915,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT5">
         <v>1.27</v>
@@ -2106,10 +2115,10 @@
         <v>1</v>
       </c>
       <c r="AS6">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT6">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU6">
         <v>1.47</v>
@@ -2210,7 +2219,7 @@
         <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2297,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT7">
         <v>1</v>
@@ -2592,7 +2601,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2682,7 +2691,7 @@
         <v>2.55</v>
       </c>
       <c r="AT9">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2783,7 +2792,7 @@
         <v>78</v>
       </c>
       <c r="P10" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -2870,7 +2879,7 @@
         <v>1</v>
       </c>
       <c r="AS10">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT10">
         <v>1.27</v>
@@ -2974,7 +2983,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q11">
         <v>14</v>
@@ -3061,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT11">
         <v>0.45</v>
@@ -3255,7 +3264,7 @@
         <v>1.73</v>
       </c>
       <c r="AT12">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU12">
         <v>2.02</v>
@@ -3356,7 +3365,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q13">
         <v>6</v>
@@ -3446,7 +3455,7 @@
         <v>2.55</v>
       </c>
       <c r="AT13">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU13">
         <v>1.92</v>
@@ -3637,7 +3646,7 @@
         <v>1.82</v>
       </c>
       <c r="AT14">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3825,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT15">
         <v>0.55</v>
@@ -4016,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT16">
         <v>1.09</v>
@@ -4401,7 +4410,7 @@
         <v>2.36</v>
       </c>
       <c r="AT18">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU18">
         <v>1.66</v>
@@ -4502,7 +4511,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q19">
         <v>7</v>
@@ -4589,10 +4598,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT19">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU19">
         <v>2.88</v>
@@ -4783,7 +4792,7 @@
         <v>1.64</v>
       </c>
       <c r="AT20">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -4971,7 +4980,7 @@
         <v>2</v>
       </c>
       <c r="AS21">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT21">
         <v>1.27</v>
@@ -5075,7 +5084,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5162,7 +5171,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT22">
         <v>0.45</v>
@@ -5266,7 +5275,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5356,7 +5365,7 @@
         <v>1.73</v>
       </c>
       <c r="AT23">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU23">
         <v>2.07</v>
@@ -5544,7 +5553,7 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT24">
         <v>1</v>
@@ -6030,7 +6039,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6117,7 +6126,7 @@
         <v>0.5</v>
       </c>
       <c r="AS27">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT27">
         <v>0.45</v>
@@ -6221,7 +6230,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6308,10 +6317,10 @@
         <v>1.5</v>
       </c>
       <c r="AS28">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT28">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU28">
         <v>1.43</v>
@@ -6502,7 +6511,7 @@
         <v>1.27</v>
       </c>
       <c r="AT29">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU29">
         <v>1.49</v>
@@ -6603,7 +6612,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -6690,10 +6699,10 @@
         <v>2</v>
       </c>
       <c r="AS30">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT30">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU30">
         <v>1.61</v>
@@ -6794,7 +6803,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q31">
         <v>8</v>
@@ -6881,7 +6890,7 @@
         <v>0.5</v>
       </c>
       <c r="AS31">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT31">
         <v>0.55</v>
@@ -7072,10 +7081,10 @@
         <v>0.2</v>
       </c>
       <c r="AS32">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT32">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU32">
         <v>1.37</v>
@@ -7176,7 +7185,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7367,7 +7376,7 @@
         <v>78</v>
       </c>
       <c r="P34" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -7454,7 +7463,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT34">
         <v>0.45</v>
@@ -7645,7 +7654,7 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT35">
         <v>1.09</v>
@@ -7839,7 +7848,7 @@
         <v>2.36</v>
       </c>
       <c r="AT36">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU36">
         <v>1.53</v>
@@ -8027,10 +8036,10 @@
         <v>0.67</v>
       </c>
       <c r="AS37">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT37">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU37">
         <v>1.63</v>
@@ -8218,10 +8227,10 @@
         <v>0.67</v>
       </c>
       <c r="AS38">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT38">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU38">
         <v>2.57</v>
@@ -8409,10 +8418,10 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT39">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU39">
         <v>1.37</v>
@@ -8513,7 +8522,7 @@
         <v>108</v>
       </c>
       <c r="P40" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -8603,7 +8612,7 @@
         <v>1.27</v>
       </c>
       <c r="AT40">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU40">
         <v>1.49</v>
@@ -8704,7 +8713,7 @@
         <v>109</v>
       </c>
       <c r="P41" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -8791,10 +8800,10 @@
         <v>1</v>
       </c>
       <c r="AS41">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT41">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU41">
         <v>1.62</v>
@@ -8982,7 +8991,7 @@
         <v>0.67</v>
       </c>
       <c r="AS42">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT42">
         <v>0.45</v>
@@ -9086,7 +9095,7 @@
         <v>110</v>
       </c>
       <c r="P43" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9173,7 +9182,7 @@
         <v>1</v>
       </c>
       <c r="AS43">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT43">
         <v>0.45</v>
@@ -9277,7 +9286,7 @@
         <v>78</v>
       </c>
       <c r="P44" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q44">
         <v>7</v>
@@ -9659,7 +9668,7 @@
         <v>112</v>
       </c>
       <c r="P46" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q46">
         <v>14</v>
@@ -9940,7 +9949,7 @@
         <v>1.82</v>
       </c>
       <c r="AT47">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU47">
         <v>1.57</v>
@@ -10319,10 +10328,10 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT49">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU49">
         <v>1.5</v>
@@ -10423,7 +10432,7 @@
         <v>82</v>
       </c>
       <c r="P50" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q50">
         <v>2</v>
@@ -10510,10 +10519,10 @@
         <v>1.5</v>
       </c>
       <c r="AS50">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT50">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU50">
         <v>1.3</v>
@@ -10701,10 +10710,10 @@
         <v>0.5</v>
       </c>
       <c r="AS51">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT51">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU51">
         <v>1.44</v>
@@ -10805,7 +10814,7 @@
         <v>78</v>
       </c>
       <c r="P52" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q52">
         <v>8</v>
@@ -10892,10 +10901,10 @@
         <v>1</v>
       </c>
       <c r="AS52">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT52">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU52">
         <v>1.79</v>
@@ -10996,7 +11005,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -11083,10 +11092,10 @@
         <v>0.57</v>
       </c>
       <c r="AS53">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT53">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU53">
         <v>1.69</v>
@@ -11187,7 +11196,7 @@
         <v>78</v>
       </c>
       <c r="P54" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q54">
         <v>2</v>
@@ -11274,10 +11283,10 @@
         <v>1.5</v>
       </c>
       <c r="AS54">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT54">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU54">
         <v>1.73</v>
@@ -11465,10 +11474,10 @@
         <v>1.25</v>
       </c>
       <c r="AS55">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT55">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU55">
         <v>2.58</v>
@@ -11569,7 +11578,7 @@
         <v>116</v>
       </c>
       <c r="P56" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q56">
         <v>7</v>
@@ -11656,10 +11665,10 @@
         <v>1.5</v>
       </c>
       <c r="AS56">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT56">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU56">
         <v>1.84</v>
@@ -11760,7 +11769,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -11847,10 +11856,10 @@
         <v>0.6</v>
       </c>
       <c r="AS57">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT57">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU57">
         <v>1.29</v>
@@ -12038,10 +12047,10 @@
         <v>2</v>
       </c>
       <c r="AS58">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT58">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU58">
         <v>1.8</v>
@@ -12142,7 +12151,7 @@
         <v>78</v>
       </c>
       <c r="P59" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13097,7 +13106,7 @@
         <v>121</v>
       </c>
       <c r="P64" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q64">
         <v>6</v>
@@ -13288,7 +13297,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q65">
         <v>6</v>
@@ -13948,7 +13957,7 @@
         <v>0.6</v>
       </c>
       <c r="AS68">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT68">
         <v>0.45</v>
@@ -14142,7 +14151,7 @@
         <v>1.64</v>
       </c>
       <c r="AT69">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU69">
         <v>1.77</v>
@@ -14243,7 +14252,7 @@
         <v>126</v>
       </c>
       <c r="P70" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14524,7 +14533,7 @@
         <v>2.55</v>
       </c>
       <c r="AT71">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU71">
         <v>2.29</v>
@@ -14625,7 +14634,7 @@
         <v>78</v>
       </c>
       <c r="P72" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -14712,10 +14721,10 @@
         <v>0.67</v>
       </c>
       <c r="AS72">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT72">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU72">
         <v>1.83</v>
@@ -14816,7 +14825,7 @@
         <v>128</v>
       </c>
       <c r="P73" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15007,7 +15016,7 @@
         <v>78</v>
       </c>
       <c r="P74" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -15094,10 +15103,10 @@
         <v>1</v>
       </c>
       <c r="AS74">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT74">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU74">
         <v>1.32</v>
@@ -15198,7 +15207,7 @@
         <v>78</v>
       </c>
       <c r="P75" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15288,7 +15297,7 @@
         <v>1.73</v>
       </c>
       <c r="AT75">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU75">
         <v>1.85</v>
@@ -15476,7 +15485,7 @@
         <v>1.4</v>
       </c>
       <c r="AS76">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT76">
         <v>1.27</v>
@@ -15667,10 +15676,10 @@
         <v>1.2</v>
       </c>
       <c r="AS77">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT77">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU77">
         <v>1.6</v>
@@ -15861,7 +15870,7 @@
         <v>2.55</v>
       </c>
       <c r="AT78">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU78">
         <v>2.26</v>
@@ -15962,7 +15971,7 @@
         <v>132</v>
       </c>
       <c r="P79" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -16049,7 +16058,7 @@
         <v>1.17</v>
       </c>
       <c r="AS79">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT79">
         <v>1.09</v>
@@ -16240,7 +16249,7 @@
         <v>0.83</v>
       </c>
       <c r="AS80">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT80">
         <v>1</v>
@@ -16344,7 +16353,7 @@
         <v>133</v>
       </c>
       <c r="P81" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q81">
         <v>10</v>
@@ -16625,7 +16634,7 @@
         <v>2.36</v>
       </c>
       <c r="AT82">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU82">
         <v>1.76</v>
@@ -16816,7 +16825,7 @@
         <v>1.64</v>
       </c>
       <c r="AT83">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU83">
         <v>1.91</v>
@@ -17198,7 +17207,7 @@
         <v>1.64</v>
       </c>
       <c r="AT85">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU85">
         <v>1.91</v>
@@ -17386,7 +17395,7 @@
         <v>1.17</v>
       </c>
       <c r="AS86">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT86">
         <v>1.27</v>
@@ -17580,7 +17589,7 @@
         <v>1.73</v>
       </c>
       <c r="AT87">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU87">
         <v>1.81</v>
@@ -17959,10 +17968,10 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT89">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU89">
         <v>1.35</v>
@@ -18063,7 +18072,7 @@
         <v>78</v>
       </c>
       <c r="P90" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q90">
         <v>5</v>
@@ -18150,7 +18159,7 @@
         <v>0.71</v>
       </c>
       <c r="AS90">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT90">
         <v>1</v>
@@ -18344,7 +18353,7 @@
         <v>2.55</v>
       </c>
       <c r="AT91">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU91">
         <v>2.14</v>
@@ -18535,7 +18544,7 @@
         <v>1.82</v>
       </c>
       <c r="AT92">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU92">
         <v>1.83</v>
@@ -18636,7 +18645,7 @@
         <v>78</v>
       </c>
       <c r="P93" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q93">
         <v>2</v>
@@ -18723,7 +18732,7 @@
         <v>1</v>
       </c>
       <c r="AS93">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT93">
         <v>1.09</v>
@@ -18827,7 +18836,7 @@
         <v>139</v>
       </c>
       <c r="P94" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -18914,7 +18923,7 @@
         <v>0.57</v>
       </c>
       <c r="AS94">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT94">
         <v>0.45</v>
@@ -19018,7 +19027,7 @@
         <v>140</v>
       </c>
       <c r="P95" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -19105,7 +19114,7 @@
         <v>0.71</v>
       </c>
       <c r="AS95">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT95">
         <v>0.55</v>
@@ -19209,7 +19218,7 @@
         <v>141</v>
       </c>
       <c r="P96" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19299,7 +19308,7 @@
         <v>2.36</v>
       </c>
       <c r="AT96">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU96">
         <v>1.76</v>
@@ -19490,7 +19499,7 @@
         <v>1.27</v>
       </c>
       <c r="AT97">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU97">
         <v>1.6</v>
@@ -19678,7 +19687,7 @@
         <v>1</v>
       </c>
       <c r="AS98">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT98">
         <v>1</v>
@@ -19869,7 +19878,7 @@
         <v>1.25</v>
       </c>
       <c r="AS99">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT99">
         <v>1.09</v>
@@ -20063,7 +20072,7 @@
         <v>1.64</v>
       </c>
       <c r="AT100">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU100">
         <v>1.91</v>
@@ -20355,7 +20364,7 @@
         <v>145</v>
       </c>
       <c r="P102" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -20636,7 +20645,7 @@
         <v>1.82</v>
       </c>
       <c r="AT103">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU103">
         <v>1.79</v>
@@ -20737,7 +20746,7 @@
         <v>146</v>
       </c>
       <c r="P104" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q104">
         <v>13</v>
@@ -20824,7 +20833,7 @@
         <v>0.5</v>
       </c>
       <c r="AS104">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT104">
         <v>0.45</v>
@@ -20928,7 +20937,7 @@
         <v>147</v>
       </c>
       <c r="P105" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21018,7 +21027,7 @@
         <v>1.27</v>
       </c>
       <c r="AT105">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU105">
         <v>1.57</v>
@@ -21119,7 +21128,7 @@
         <v>148</v>
       </c>
       <c r="P106" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -21206,7 +21215,7 @@
         <v>0.63</v>
       </c>
       <c r="AS106">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT106">
         <v>0.55</v>
@@ -21310,7 +21319,7 @@
         <v>78</v>
       </c>
       <c r="P107" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q107">
         <v>1</v>
@@ -21501,7 +21510,7 @@
         <v>149</v>
       </c>
       <c r="P108" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q108">
         <v>9</v>
@@ -21973,7 +21982,7 @@
         <v>2.36</v>
       </c>
       <c r="AT110">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU110">
         <v>1.72</v>
@@ -22265,7 +22274,7 @@
         <v>152</v>
       </c>
       <c r="P112" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q112">
         <v>6</v>
@@ -22352,7 +22361,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS112">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT112">
         <v>0.55</v>
@@ -22734,10 +22743,10 @@
         <v>1.11</v>
       </c>
       <c r="AS114">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT114">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU114">
         <v>1.74</v>
@@ -22838,7 +22847,7 @@
         <v>154</v>
       </c>
       <c r="P115" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q115">
         <v>2</v>
@@ -22925,10 +22934,10 @@
         <v>1.63</v>
       </c>
       <c r="AS115">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT115">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU115">
         <v>1.72</v>
@@ -23029,7 +23038,7 @@
         <v>155</v>
       </c>
       <c r="P116" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q116">
         <v>9</v>
@@ -23116,7 +23125,7 @@
         <v>0.44</v>
       </c>
       <c r="AS116">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT116">
         <v>0.45</v>
@@ -23220,7 +23229,7 @@
         <v>156</v>
       </c>
       <c r="P117" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q117">
         <v>15</v>
@@ -23307,10 +23316,10 @@
         <v>0.44</v>
       </c>
       <c r="AS117">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT117">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU117">
         <v>1.74</v>
@@ -23411,7 +23420,7 @@
         <v>78</v>
       </c>
       <c r="P118" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -23501,7 +23510,7 @@
         <v>1.27</v>
       </c>
       <c r="AT118">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU118">
         <v>1.51</v>
@@ -23602,7 +23611,7 @@
         <v>78</v>
       </c>
       <c r="P119" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q119">
         <v>5</v>
@@ -23689,10 +23698,10 @@
         <v>1.75</v>
       </c>
       <c r="AS119">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT119">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU119">
         <v>2.44</v>
@@ -23793,7 +23802,7 @@
         <v>157</v>
       </c>
       <c r="P120" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q120">
         <v>10</v>
@@ -24748,7 +24757,7 @@
         <v>161</v>
       </c>
       <c r="P125" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q125">
         <v>10</v>
@@ -25026,10 +25035,10 @@
         <v>1.44</v>
       </c>
       <c r="AS126">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT126">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU126">
         <v>2.25</v>
@@ -25130,7 +25139,7 @@
         <v>162</v>
       </c>
       <c r="P127" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q127">
         <v>2</v>
@@ -25220,7 +25229,7 @@
         <v>1.82</v>
       </c>
       <c r="AT127">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU127">
         <v>1.78</v>
@@ -25272,6 +25281,1152 @@
       </c>
       <c r="BK127">
         <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:63">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>3403365</v>
+      </c>
+      <c r="C128" t="s">
+        <v>63</v>
+      </c>
+      <c r="D128" t="s">
+        <v>64</v>
+      </c>
+      <c r="E128" s="2">
+        <v>44996.45833333334</v>
+      </c>
+      <c r="F128">
+        <v>22</v>
+      </c>
+      <c r="G128" t="s">
+        <v>76</v>
+      </c>
+      <c r="H128" t="s">
+        <v>75</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>2</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128">
+        <v>3</v>
+      </c>
+      <c r="O128" t="s">
+        <v>163</v>
+      </c>
+      <c r="P128" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q128">
+        <v>4</v>
+      </c>
+      <c r="R128">
+        <v>4</v>
+      </c>
+      <c r="S128">
+        <v>8</v>
+      </c>
+      <c r="T128">
+        <v>0</v>
+      </c>
+      <c r="U128">
+        <v>0</v>
+      </c>
+      <c r="V128">
+        <v>0</v>
+      </c>
+      <c r="W128">
+        <v>0</v>
+      </c>
+      <c r="X128">
+        <v>0</v>
+      </c>
+      <c r="Y128">
+        <v>0</v>
+      </c>
+      <c r="Z128">
+        <v>0</v>
+      </c>
+      <c r="AA128">
+        <v>0</v>
+      </c>
+      <c r="AB128">
+        <v>0</v>
+      </c>
+      <c r="AC128">
+        <v>2</v>
+      </c>
+      <c r="AD128">
+        <v>3</v>
+      </c>
+      <c r="AE128">
+        <v>3.8</v>
+      </c>
+      <c r="AF128">
+        <v>0</v>
+      </c>
+      <c r="AG128">
+        <v>0</v>
+      </c>
+      <c r="AH128">
+        <v>0</v>
+      </c>
+      <c r="AI128">
+        <v>0</v>
+      </c>
+      <c r="AJ128">
+        <v>2.33</v>
+      </c>
+      <c r="AK128">
+        <v>1.54</v>
+      </c>
+      <c r="AL128">
+        <v>0</v>
+      </c>
+      <c r="AM128">
+        <v>0</v>
+      </c>
+      <c r="AN128">
+        <v>0</v>
+      </c>
+      <c r="AO128">
+        <v>0</v>
+      </c>
+      <c r="AP128">
+        <v>0</v>
+      </c>
+      <c r="AQ128">
+        <v>1.5</v>
+      </c>
+      <c r="AR128">
+        <v>0.5</v>
+      </c>
+      <c r="AS128">
+        <v>1.64</v>
+      </c>
+      <c r="AT128">
+        <v>0.45</v>
+      </c>
+      <c r="AU128">
+        <v>1.39</v>
+      </c>
+      <c r="AV128">
+        <v>1.1</v>
+      </c>
+      <c r="AW128">
+        <v>2.49</v>
+      </c>
+      <c r="AX128">
+        <v>0</v>
+      </c>
+      <c r="AY128">
+        <v>0</v>
+      </c>
+      <c r="AZ128">
+        <v>0</v>
+      </c>
+      <c r="BA128">
+        <v>0</v>
+      </c>
+      <c r="BB128">
+        <v>0</v>
+      </c>
+      <c r="BC128">
+        <v>0</v>
+      </c>
+      <c r="BD128">
+        <v>0</v>
+      </c>
+      <c r="BE128">
+        <v>0</v>
+      </c>
+      <c r="BF128">
+        <v>6</v>
+      </c>
+      <c r="BG128">
+        <v>3</v>
+      </c>
+      <c r="BH128">
+        <v>4</v>
+      </c>
+      <c r="BI128">
+        <v>2</v>
+      </c>
+      <c r="BJ128">
+        <v>10</v>
+      </c>
+      <c r="BK128">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:63">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>3403367</v>
+      </c>
+      <c r="C129" t="s">
+        <v>63</v>
+      </c>
+      <c r="D129" t="s">
+        <v>64</v>
+      </c>
+      <c r="E129" s="2">
+        <v>44996.45833333334</v>
+      </c>
+      <c r="F129">
+        <v>22</v>
+      </c>
+      <c r="G129" t="s">
+        <v>66</v>
+      </c>
+      <c r="H129" t="s">
+        <v>71</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>3</v>
+      </c>
+      <c r="N129">
+        <v>3</v>
+      </c>
+      <c r="O129" t="s">
+        <v>78</v>
+      </c>
+      <c r="P129" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q129">
+        <v>2</v>
+      </c>
+      <c r="R129">
+        <v>6</v>
+      </c>
+      <c r="S129">
+        <v>8</v>
+      </c>
+      <c r="T129">
+        <v>0</v>
+      </c>
+      <c r="U129">
+        <v>0</v>
+      </c>
+      <c r="V129">
+        <v>0</v>
+      </c>
+      <c r="W129">
+        <v>0</v>
+      </c>
+      <c r="X129">
+        <v>0</v>
+      </c>
+      <c r="Y129">
+        <v>0</v>
+      </c>
+      <c r="Z129">
+        <v>0</v>
+      </c>
+      <c r="AA129">
+        <v>0</v>
+      </c>
+      <c r="AB129">
+        <v>0</v>
+      </c>
+      <c r="AC129">
+        <v>8.5</v>
+      </c>
+      <c r="AD129">
+        <v>4</v>
+      </c>
+      <c r="AE129">
+        <v>1.37</v>
+      </c>
+      <c r="AF129">
+        <v>0</v>
+      </c>
+      <c r="AG129">
+        <v>0</v>
+      </c>
+      <c r="AH129">
+        <v>0</v>
+      </c>
+      <c r="AI129">
+        <v>0</v>
+      </c>
+      <c r="AJ129">
+        <v>2.05</v>
+      </c>
+      <c r="AK129">
+        <v>1.68</v>
+      </c>
+      <c r="AL129">
+        <v>0</v>
+      </c>
+      <c r="AM129">
+        <v>0</v>
+      </c>
+      <c r="AN129">
+        <v>0</v>
+      </c>
+      <c r="AO129">
+        <v>0</v>
+      </c>
+      <c r="AP129">
+        <v>0</v>
+      </c>
+      <c r="AQ129">
+        <v>1.5</v>
+      </c>
+      <c r="AR129">
+        <v>2</v>
+      </c>
+      <c r="AS129">
+        <v>1.36</v>
+      </c>
+      <c r="AT129">
+        <v>2.09</v>
+      </c>
+      <c r="AU129">
+        <v>1.68</v>
+      </c>
+      <c r="AV129">
+        <v>1.62</v>
+      </c>
+      <c r="AW129">
+        <v>3.3</v>
+      </c>
+      <c r="AX129">
+        <v>0</v>
+      </c>
+      <c r="AY129">
+        <v>0</v>
+      </c>
+      <c r="AZ129">
+        <v>0</v>
+      </c>
+      <c r="BA129">
+        <v>0</v>
+      </c>
+      <c r="BB129">
+        <v>0</v>
+      </c>
+      <c r="BC129">
+        <v>0</v>
+      </c>
+      <c r="BD129">
+        <v>0</v>
+      </c>
+      <c r="BE129">
+        <v>0</v>
+      </c>
+      <c r="BF129">
+        <v>2</v>
+      </c>
+      <c r="BG129">
+        <v>7</v>
+      </c>
+      <c r="BH129">
+        <v>0</v>
+      </c>
+      <c r="BI129">
+        <v>5</v>
+      </c>
+      <c r="BJ129">
+        <v>2</v>
+      </c>
+      <c r="BK129">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:63">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>3403366</v>
+      </c>
+      <c r="C130" t="s">
+        <v>63</v>
+      </c>
+      <c r="D130" t="s">
+        <v>64</v>
+      </c>
+      <c r="E130" s="2">
+        <v>44996.60416666666</v>
+      </c>
+      <c r="F130">
+        <v>22</v>
+      </c>
+      <c r="G130" t="s">
+        <v>69</v>
+      </c>
+      <c r="H130" t="s">
+        <v>74</v>
+      </c>
+      <c r="I130">
+        <v>2</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>2</v>
+      </c>
+      <c r="L130">
+        <v>3</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>3</v>
+      </c>
+      <c r="O130" t="s">
+        <v>164</v>
+      </c>
+      <c r="P130" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q130">
+        <v>2</v>
+      </c>
+      <c r="R130">
+        <v>5</v>
+      </c>
+      <c r="S130">
+        <v>7</v>
+      </c>
+      <c r="T130">
+        <v>0</v>
+      </c>
+      <c r="U130">
+        <v>0</v>
+      </c>
+      <c r="V130">
+        <v>0</v>
+      </c>
+      <c r="W130">
+        <v>0</v>
+      </c>
+      <c r="X130">
+        <v>0</v>
+      </c>
+      <c r="Y130">
+        <v>0</v>
+      </c>
+      <c r="Z130">
+        <v>0</v>
+      </c>
+      <c r="AA130">
+        <v>0</v>
+      </c>
+      <c r="AB130">
+        <v>0</v>
+      </c>
+      <c r="AC130">
+        <v>1.53</v>
+      </c>
+      <c r="AD130">
+        <v>3.6</v>
+      </c>
+      <c r="AE130">
+        <v>5.75</v>
+      </c>
+      <c r="AF130">
+        <v>0</v>
+      </c>
+      <c r="AG130">
+        <v>0</v>
+      </c>
+      <c r="AH130">
+        <v>0</v>
+      </c>
+      <c r="AI130">
+        <v>0</v>
+      </c>
+      <c r="AJ130">
+        <v>1.95</v>
+      </c>
+      <c r="AK130">
+        <v>1.75</v>
+      </c>
+      <c r="AL130">
+        <v>0</v>
+      </c>
+      <c r="AM130">
+        <v>0</v>
+      </c>
+      <c r="AN130">
+        <v>0</v>
+      </c>
+      <c r="AO130">
+        <v>0</v>
+      </c>
+      <c r="AP130">
+        <v>0</v>
+      </c>
+      <c r="AQ130">
+        <v>2.2</v>
+      </c>
+      <c r="AR130">
+        <v>0.8</v>
+      </c>
+      <c r="AS130">
+        <v>2.27</v>
+      </c>
+      <c r="AT130">
+        <v>0.73</v>
+      </c>
+      <c r="AU130">
+        <v>1.81</v>
+      </c>
+      <c r="AV130">
+        <v>1.33</v>
+      </c>
+      <c r="AW130">
+        <v>3.14</v>
+      </c>
+      <c r="AX130">
+        <v>0</v>
+      </c>
+      <c r="AY130">
+        <v>0</v>
+      </c>
+      <c r="AZ130">
+        <v>0</v>
+      </c>
+      <c r="BA130">
+        <v>0</v>
+      </c>
+      <c r="BB130">
+        <v>0</v>
+      </c>
+      <c r="BC130">
+        <v>0</v>
+      </c>
+      <c r="BD130">
+        <v>0</v>
+      </c>
+      <c r="BE130">
+        <v>0</v>
+      </c>
+      <c r="BF130">
+        <v>6</v>
+      </c>
+      <c r="BG130">
+        <v>3</v>
+      </c>
+      <c r="BH130">
+        <v>3</v>
+      </c>
+      <c r="BI130">
+        <v>6</v>
+      </c>
+      <c r="BJ130">
+        <v>9</v>
+      </c>
+      <c r="BK130">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:63">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>3403363</v>
+      </c>
+      <c r="C131" t="s">
+        <v>63</v>
+      </c>
+      <c r="D131" t="s">
+        <v>64</v>
+      </c>
+      <c r="E131" s="2">
+        <v>44997.375</v>
+      </c>
+      <c r="F131">
+        <v>22</v>
+      </c>
+      <c r="G131" t="s">
+        <v>65</v>
+      </c>
+      <c r="H131" t="s">
+        <v>70</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131">
+        <v>1</v>
+      </c>
+      <c r="O131" t="s">
+        <v>78</v>
+      </c>
+      <c r="P131" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q131">
+        <v>-1</v>
+      </c>
+      <c r="R131">
+        <v>-1</v>
+      </c>
+      <c r="S131">
+        <v>-1</v>
+      </c>
+      <c r="T131">
+        <v>0</v>
+      </c>
+      <c r="U131">
+        <v>0</v>
+      </c>
+      <c r="V131">
+        <v>0</v>
+      </c>
+      <c r="W131">
+        <v>0</v>
+      </c>
+      <c r="X131">
+        <v>0</v>
+      </c>
+      <c r="Y131">
+        <v>0</v>
+      </c>
+      <c r="Z131">
+        <v>0</v>
+      </c>
+      <c r="AA131">
+        <v>0</v>
+      </c>
+      <c r="AB131">
+        <v>0</v>
+      </c>
+      <c r="AC131">
+        <v>2.18</v>
+      </c>
+      <c r="AD131">
+        <v>3.3</v>
+      </c>
+      <c r="AE131">
+        <v>3.15</v>
+      </c>
+      <c r="AF131">
+        <v>0</v>
+      </c>
+      <c r="AG131">
+        <v>0</v>
+      </c>
+      <c r="AH131">
+        <v>0</v>
+      </c>
+      <c r="AI131">
+        <v>0</v>
+      </c>
+      <c r="AJ131">
+        <v>2.45</v>
+      </c>
+      <c r="AK131">
+        <v>1.49</v>
+      </c>
+      <c r="AL131">
+        <v>0</v>
+      </c>
+      <c r="AM131">
+        <v>0</v>
+      </c>
+      <c r="AN131">
+        <v>0</v>
+      </c>
+      <c r="AO131">
+        <v>0</v>
+      </c>
+      <c r="AP131">
+        <v>0</v>
+      </c>
+      <c r="AQ131">
+        <v>1.2</v>
+      </c>
+      <c r="AR131">
+        <v>1</v>
+      </c>
+      <c r="AS131">
+        <v>1.09</v>
+      </c>
+      <c r="AT131">
+        <v>1.18</v>
+      </c>
+      <c r="AU131">
+        <v>1.72</v>
+      </c>
+      <c r="AV131">
+        <v>1.03</v>
+      </c>
+      <c r="AW131">
+        <v>2.75</v>
+      </c>
+      <c r="AX131">
+        <v>0</v>
+      </c>
+      <c r="AY131">
+        <v>0</v>
+      </c>
+      <c r="AZ131">
+        <v>0</v>
+      </c>
+      <c r="BA131">
+        <v>0</v>
+      </c>
+      <c r="BB131">
+        <v>0</v>
+      </c>
+      <c r="BC131">
+        <v>0</v>
+      </c>
+      <c r="BD131">
+        <v>0</v>
+      </c>
+      <c r="BE131">
+        <v>0</v>
+      </c>
+      <c r="BF131">
+        <v>-1</v>
+      </c>
+      <c r="BG131">
+        <v>-1</v>
+      </c>
+      <c r="BH131">
+        <v>-1</v>
+      </c>
+      <c r="BI131">
+        <v>-1</v>
+      </c>
+      <c r="BJ131">
+        <v>-1</v>
+      </c>
+      <c r="BK131">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:63">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>3403364</v>
+      </c>
+      <c r="C132" t="s">
+        <v>63</v>
+      </c>
+      <c r="D132" t="s">
+        <v>64</v>
+      </c>
+      <c r="E132" s="2">
+        <v>44997.45833333334</v>
+      </c>
+      <c r="F132">
+        <v>22</v>
+      </c>
+      <c r="G132" t="s">
+        <v>72</v>
+      </c>
+      <c r="H132" t="s">
+        <v>73</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="N132">
+        <v>1</v>
+      </c>
+      <c r="O132" t="s">
+        <v>78</v>
+      </c>
+      <c r="P132" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q132">
+        <v>-1</v>
+      </c>
+      <c r="R132">
+        <v>-1</v>
+      </c>
+      <c r="S132">
+        <v>-1</v>
+      </c>
+      <c r="T132">
+        <v>0</v>
+      </c>
+      <c r="U132">
+        <v>0</v>
+      </c>
+      <c r="V132">
+        <v>0</v>
+      </c>
+      <c r="W132">
+        <v>0</v>
+      </c>
+      <c r="X132">
+        <v>0</v>
+      </c>
+      <c r="Y132">
+        <v>0</v>
+      </c>
+      <c r="Z132">
+        <v>0</v>
+      </c>
+      <c r="AA132">
+        <v>0</v>
+      </c>
+      <c r="AB132">
+        <v>0</v>
+      </c>
+      <c r="AC132">
+        <v>1.84</v>
+      </c>
+      <c r="AD132">
+        <v>3.38</v>
+      </c>
+      <c r="AE132">
+        <v>4.16</v>
+      </c>
+      <c r="AF132">
+        <v>0</v>
+      </c>
+      <c r="AG132">
+        <v>0</v>
+      </c>
+      <c r="AH132">
+        <v>0</v>
+      </c>
+      <c r="AI132">
+        <v>0</v>
+      </c>
+      <c r="AJ132">
+        <v>2.33</v>
+      </c>
+      <c r="AK132">
+        <v>1.54</v>
+      </c>
+      <c r="AL132">
+        <v>0</v>
+      </c>
+      <c r="AM132">
+        <v>0</v>
+      </c>
+      <c r="AN132">
+        <v>0</v>
+      </c>
+      <c r="AO132">
+        <v>0</v>
+      </c>
+      <c r="AP132">
+        <v>0</v>
+      </c>
+      <c r="AQ132">
+        <v>1.8</v>
+      </c>
+      <c r="AR132">
+        <v>1</v>
+      </c>
+      <c r="AS132">
+        <v>1.64</v>
+      </c>
+      <c r="AT132">
+        <v>1.18</v>
+      </c>
+      <c r="AU132">
+        <v>2.16</v>
+      </c>
+      <c r="AV132">
+        <v>1.29</v>
+      </c>
+      <c r="AW132">
+        <v>3.45</v>
+      </c>
+      <c r="AX132">
+        <v>0</v>
+      </c>
+      <c r="AY132">
+        <v>0</v>
+      </c>
+      <c r="AZ132">
+        <v>0</v>
+      </c>
+      <c r="BA132">
+        <v>0</v>
+      </c>
+      <c r="BB132">
+        <v>0</v>
+      </c>
+      <c r="BC132">
+        <v>0</v>
+      </c>
+      <c r="BD132">
+        <v>0</v>
+      </c>
+      <c r="BE132">
+        <v>0</v>
+      </c>
+      <c r="BF132">
+        <v>-1</v>
+      </c>
+      <c r="BG132">
+        <v>-1</v>
+      </c>
+      <c r="BH132">
+        <v>-1</v>
+      </c>
+      <c r="BI132">
+        <v>-1</v>
+      </c>
+      <c r="BJ132">
+        <v>-1</v>
+      </c>
+      <c r="BK132">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:63">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>3403368</v>
+      </c>
+      <c r="C133" t="s">
+        <v>63</v>
+      </c>
+      <c r="D133" t="s">
+        <v>64</v>
+      </c>
+      <c r="E133" s="2">
+        <v>44997.45833333334</v>
+      </c>
+      <c r="F133">
+        <v>22</v>
+      </c>
+      <c r="G133" t="s">
+        <v>68</v>
+      </c>
+      <c r="H133" t="s">
+        <v>67</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133">
+        <v>1</v>
+      </c>
+      <c r="O133" t="s">
+        <v>78</v>
+      </c>
+      <c r="P133" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q133">
+        <v>-1</v>
+      </c>
+      <c r="R133">
+        <v>-1</v>
+      </c>
+      <c r="S133">
+        <v>-1</v>
+      </c>
+      <c r="T133">
+        <v>0</v>
+      </c>
+      <c r="U133">
+        <v>0</v>
+      </c>
+      <c r="V133">
+        <v>0</v>
+      </c>
+      <c r="W133">
+        <v>0</v>
+      </c>
+      <c r="X133">
+        <v>0</v>
+      </c>
+      <c r="Y133">
+        <v>0</v>
+      </c>
+      <c r="Z133">
+        <v>0</v>
+      </c>
+      <c r="AA133">
+        <v>0</v>
+      </c>
+      <c r="AB133">
+        <v>0</v>
+      </c>
+      <c r="AC133">
+        <v>4.2</v>
+      </c>
+      <c r="AD133">
+        <v>3.62</v>
+      </c>
+      <c r="AE133">
+        <v>1.77</v>
+      </c>
+      <c r="AF133">
+        <v>0</v>
+      </c>
+      <c r="AG133">
+        <v>0</v>
+      </c>
+      <c r="AH133">
+        <v>0</v>
+      </c>
+      <c r="AI133">
+        <v>0</v>
+      </c>
+      <c r="AJ133">
+        <v>1.85</v>
+      </c>
+      <c r="AK133">
+        <v>1.76</v>
+      </c>
+      <c r="AL133">
+        <v>0</v>
+      </c>
+      <c r="AM133">
+        <v>0</v>
+      </c>
+      <c r="AN133">
+        <v>0</v>
+      </c>
+      <c r="AO133">
+        <v>0</v>
+      </c>
+      <c r="AP133">
+        <v>0</v>
+      </c>
+      <c r="AQ133">
+        <v>1.8</v>
+      </c>
+      <c r="AR133">
+        <v>1.4</v>
+      </c>
+      <c r="AS133">
+        <v>1.64</v>
+      </c>
+      <c r="AT133">
+        <v>1.55</v>
+      </c>
+      <c r="AU133">
+        <v>1.63</v>
+      </c>
+      <c r="AV133">
+        <v>1.39</v>
+      </c>
+      <c r="AW133">
+        <v>3.02</v>
+      </c>
+      <c r="AX133">
+        <v>0</v>
+      </c>
+      <c r="AY133">
+        <v>0</v>
+      </c>
+      <c r="AZ133">
+        <v>0</v>
+      </c>
+      <c r="BA133">
+        <v>0</v>
+      </c>
+      <c r="BB133">
+        <v>0</v>
+      </c>
+      <c r="BC133">
+        <v>0</v>
+      </c>
+      <c r="BD133">
+        <v>0</v>
+      </c>
+      <c r="BE133">
+        <v>0</v>
+      </c>
+      <c r="BF133">
+        <v>-1</v>
+      </c>
+      <c r="BG133">
+        <v>-1</v>
+      </c>
+      <c r="BH133">
+        <v>-1</v>
+      </c>
+      <c r="BI133">
+        <v>-1</v>
+      </c>
+      <c r="BJ133">
+        <v>-1</v>
+      </c>
+      <c r="BK133">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bosnia and Herzegovina Premier League of Bosnia_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bosnia and Herzegovina Premier League of Bosnia_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="216">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -310,10 +310,10 @@
     <t>['27', '54']</t>
   </si>
   <si>
-    <t>['21', '60', '90+2']</t>
+    <t>['7']</t>
   </si>
   <si>
-    <t>['7']</t>
+    <t>['21', '60', '90+2']</t>
   </si>
   <si>
     <t>['51']</t>
@@ -382,10 +382,10 @@
     <t>['56']</t>
   </si>
   <si>
-    <t>['28']</t>
+    <t>['55']</t>
   </si>
   <si>
-    <t>['55']</t>
+    <t>['28']</t>
   </si>
   <si>
     <t>['44']</t>
@@ -424,10 +424,10 @@
     <t>['87']</t>
   </si>
   <si>
-    <t>['51', '90+2']</t>
+    <t>['34', '45', '61']</t>
   </si>
   <si>
-    <t>['34', '45', '61']</t>
+    <t>['51', '90+2']</t>
   </si>
   <si>
     <t>['65']</t>
@@ -577,10 +577,10 @@
     <t>['1', '57', '74']</t>
   </si>
   <si>
-    <t>['43']</t>
+    <t>['6']</t>
   </si>
   <si>
-    <t>['6']</t>
+    <t>['43']</t>
   </si>
   <si>
     <t>['26', '82']</t>
@@ -601,10 +601,10 @@
     <t>['86']</t>
   </si>
   <si>
-    <t>['72']</t>
+    <t>['35', '40', '51']</t>
   </si>
   <si>
-    <t>['35', '40', '51']</t>
+    <t>['72']</t>
   </si>
   <si>
     <t>['30']</t>
@@ -659,6 +659,9 @@
   </si>
   <si>
     <t>['26', '73', '82']</t>
+  </si>
+  <si>
+    <t>['21']</t>
   </si>
 </sst>
 </file>
@@ -1455,7 +1458,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q3">
         <v>9</v>
@@ -5615,7 +5618,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>3403266</v>
+        <v>3403265</v>
       </c>
       <c r="C25" t="s">
         <v>63</v>
@@ -5630,80 +5633,80 @@
         <v>2</v>
       </c>
       <c r="G25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O25" t="s">
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="Q25">
+        <v>3</v>
+      </c>
+      <c r="R25">
         <v>2</v>
       </c>
-      <c r="R25">
+      <c r="S25">
+        <v>5</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>1.5</v>
+      </c>
+      <c r="AD25">
+        <v>4</v>
+      </c>
+      <c r="AE25">
         <v>6</v>
       </c>
-      <c r="S25">
-        <v>8</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
-        <v>2.05</v>
-      </c>
-      <c r="AD25">
-        <v>3.3</v>
-      </c>
-      <c r="AE25">
-        <v>3.4</v>
-      </c>
       <c r="AF25">
         <v>0</v>
       </c>
@@ -5717,10 +5720,10 @@
         <v>0</v>
       </c>
       <c r="AJ25">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AK25">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AL25">
         <v>0</v>
@@ -5738,25 +5741,25 @@
         <v>0</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR25">
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.27</v>
+        <v>1.82</v>
       </c>
       <c r="AT25">
-        <v>1.09</v>
+        <v>0.55</v>
       </c>
       <c r="AU25">
-        <v>0.97</v>
+        <v>1.41</v>
       </c>
       <c r="AV25">
-        <v>0.93</v>
+        <v>0.77</v>
       </c>
       <c r="AW25">
-        <v>1.9</v>
+        <v>2.18</v>
       </c>
       <c r="AX25">
         <v>0</v>
@@ -5783,22 +5786,22 @@
         <v>0</v>
       </c>
       <c r="BF25">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BG25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH25">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="BI25">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BJ25">
+        <v>15</v>
+      </c>
+      <c r="BK25">
         <v>12</v>
-      </c>
-      <c r="BK25">
-        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:63">
@@ -5806,7 +5809,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>3403265</v>
+        <v>3403266</v>
       </c>
       <c r="C26" t="s">
         <v>63</v>
@@ -5821,175 +5824,175 @@
         <v>2</v>
       </c>
       <c r="G26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O26" t="s">
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="Q26">
+        <v>2</v>
+      </c>
+      <c r="R26">
+        <v>6</v>
+      </c>
+      <c r="S26">
+        <v>8</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>2.05</v>
+      </c>
+      <c r="AD26">
+        <v>3.3</v>
+      </c>
+      <c r="AE26">
+        <v>3.4</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <v>2</v>
+      </c>
+      <c r="AK26">
+        <v>1.75</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>1</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
+        <v>1.27</v>
+      </c>
+      <c r="AT26">
+        <v>1.09</v>
+      </c>
+      <c r="AU26">
+        <v>0.97</v>
+      </c>
+      <c r="AV26">
+        <v>0.93</v>
+      </c>
+      <c r="AW26">
+        <v>1.9</v>
+      </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>0</v>
+      </c>
+      <c r="AZ26">
+        <v>0</v>
+      </c>
+      <c r="BA26">
+        <v>0</v>
+      </c>
+      <c r="BB26">
+        <v>0</v>
+      </c>
+      <c r="BC26">
+        <v>0</v>
+      </c>
+      <c r="BD26">
+        <v>0</v>
+      </c>
+      <c r="BE26">
+        <v>0</v>
+      </c>
+      <c r="BF26">
+        <v>9</v>
+      </c>
+      <c r="BG26">
+        <v>4</v>
+      </c>
+      <c r="BH26">
         <v>3</v>
       </c>
-      <c r="R26">
+      <c r="BI26">
         <v>2</v>
       </c>
-      <c r="S26">
-        <v>5</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AA26">
-        <v>0</v>
-      </c>
-      <c r="AB26">
-        <v>0</v>
-      </c>
-      <c r="AC26">
-        <v>1.5</v>
-      </c>
-      <c r="AD26">
-        <v>4</v>
-      </c>
-      <c r="AE26">
+      <c r="BJ26">
+        <v>12</v>
+      </c>
+      <c r="BK26">
         <v>6</v>
-      </c>
-      <c r="AF26">
-        <v>0</v>
-      </c>
-      <c r="AG26">
-        <v>0</v>
-      </c>
-      <c r="AH26">
-        <v>0</v>
-      </c>
-      <c r="AI26">
-        <v>0</v>
-      </c>
-      <c r="AJ26">
-        <v>1.95</v>
-      </c>
-      <c r="AK26">
-        <v>1.8</v>
-      </c>
-      <c r="AL26">
-        <v>0</v>
-      </c>
-      <c r="AM26">
-        <v>0</v>
-      </c>
-      <c r="AN26">
-        <v>0</v>
-      </c>
-      <c r="AO26">
-        <v>0</v>
-      </c>
-      <c r="AP26">
-        <v>0</v>
-      </c>
-      <c r="AQ26">
-        <v>3</v>
-      </c>
-      <c r="AR26">
-        <v>0</v>
-      </c>
-      <c r="AS26">
-        <v>1.82</v>
-      </c>
-      <c r="AT26">
-        <v>0.55</v>
-      </c>
-      <c r="AU26">
-        <v>1.41</v>
-      </c>
-      <c r="AV26">
-        <v>0.77</v>
-      </c>
-      <c r="AW26">
-        <v>2.18</v>
-      </c>
-      <c r="AX26">
-        <v>0</v>
-      </c>
-      <c r="AY26">
-        <v>0</v>
-      </c>
-      <c r="AZ26">
-        <v>0</v>
-      </c>
-      <c r="BA26">
-        <v>0</v>
-      </c>
-      <c r="BB26">
-        <v>0</v>
-      </c>
-      <c r="BC26">
-        <v>0</v>
-      </c>
-      <c r="BD26">
-        <v>0</v>
-      </c>
-      <c r="BE26">
-        <v>0</v>
-      </c>
-      <c r="BF26">
-        <v>3</v>
-      </c>
-      <c r="BG26">
-        <v>5</v>
-      </c>
-      <c r="BH26">
-        <v>12</v>
-      </c>
-      <c r="BI26">
-        <v>7</v>
-      </c>
-      <c r="BJ26">
-        <v>15</v>
-      </c>
-      <c r="BK26">
-        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:63">
@@ -8671,7 +8674,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>3403282</v>
+        <v>3403279</v>
       </c>
       <c r="C41" t="s">
         <v>63</v>
@@ -8686,43 +8689,43 @@
         <v>8</v>
       </c>
       <c r="G41" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H41" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O41" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="P41" t="s">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="Q41">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R41">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S41">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="T41">
         <v>0</v>
@@ -8770,13 +8773,13 @@
         <v>1.54</v>
       </c>
       <c r="AI41">
-        <v>2.31</v>
+        <v>2.32</v>
       </c>
       <c r="AJ41">
-        <v>2.32</v>
+        <v>2.65</v>
       </c>
       <c r="AK41">
-        <v>1.55</v>
+        <v>1.37</v>
       </c>
       <c r="AL41">
         <v>0</v>
@@ -8794,25 +8797,25 @@
         <v>0</v>
       </c>
       <c r="AQ41">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR41">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AS41">
-        <v>1.09</v>
+        <v>1.36</v>
       </c>
       <c r="AT41">
-        <v>1.55</v>
+        <v>0.45</v>
       </c>
       <c r="AU41">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AV41">
-        <v>1.46</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AW41">
-        <v>3.08</v>
+        <v>2.48</v>
       </c>
       <c r="AX41">
         <v>0</v>
@@ -8839,22 +8842,22 @@
         <v>0</v>
       </c>
       <c r="BF41">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BG41">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BH41">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BI41">
         <v>5</v>
       </c>
       <c r="BJ41">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BK41">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:63">
@@ -8862,7 +8865,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>3403279</v>
+        <v>3403282</v>
       </c>
       <c r="C42" t="s">
         <v>63</v>
@@ -8877,43 +8880,43 @@
         <v>8</v>
       </c>
       <c r="G42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H42" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O42" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="P42" t="s">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="Q42">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R42">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S42">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="T42">
         <v>0</v>
@@ -8961,13 +8964,13 @@
         <v>1.54</v>
       </c>
       <c r="AI42">
+        <v>2.31</v>
+      </c>
+      <c r="AJ42">
         <v>2.32</v>
       </c>
-      <c r="AJ42">
-        <v>2.65</v>
-      </c>
       <c r="AK42">
-        <v>1.37</v>
+        <v>1.55</v>
       </c>
       <c r="AL42">
         <v>0</v>
@@ -8985,25 +8988,25 @@
         <v>0</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR42">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AS42">
-        <v>1.36</v>
+        <v>1.09</v>
       </c>
       <c r="AT42">
-        <v>0.45</v>
+        <v>1.55</v>
       </c>
       <c r="AU42">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AV42">
-        <v>0.8100000000000001</v>
+        <v>1.46</v>
       </c>
       <c r="AW42">
-        <v>2.48</v>
+        <v>3.08</v>
       </c>
       <c r="AX42">
         <v>0</v>
@@ -9030,22 +9033,22 @@
         <v>0</v>
       </c>
       <c r="BF42">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BG42">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BH42">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BI42">
         <v>5</v>
       </c>
       <c r="BJ42">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BK42">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:63">
@@ -10390,7 +10393,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>3403294</v>
+        <v>3403293</v>
       </c>
       <c r="C50" t="s">
         <v>63</v>
@@ -10405,10 +10408,10 @@
         <v>10</v>
       </c>
       <c r="G50" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H50" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -10420,160 +10423,160 @@
         <v>0</v>
       </c>
       <c r="L50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O50" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="P50" t="s">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="Q50">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S50">
+        <v>11</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+      <c r="AC50">
+        <v>1.59</v>
+      </c>
+      <c r="AD50">
+        <v>3.62</v>
+      </c>
+      <c r="AE50">
+        <v>5.5</v>
+      </c>
+      <c r="AF50">
+        <v>0</v>
+      </c>
+      <c r="AG50">
+        <v>0</v>
+      </c>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
+      </c>
+      <c r="AJ50">
+        <v>2.04</v>
+      </c>
+      <c r="AK50">
+        <v>1.7</v>
+      </c>
+      <c r="AL50">
+        <v>0</v>
+      </c>
+      <c r="AM50">
+        <v>0</v>
+      </c>
+      <c r="AN50">
+        <v>0</v>
+      </c>
+      <c r="AO50">
+        <v>0</v>
+      </c>
+      <c r="AP50">
+        <v>0</v>
+      </c>
+      <c r="AQ50">
+        <v>1.8</v>
+      </c>
+      <c r="AR50">
+        <v>0.5</v>
+      </c>
+      <c r="AS50">
+        <v>2.27</v>
+      </c>
+      <c r="AT50">
+        <v>1.18</v>
+      </c>
+      <c r="AU50">
+        <v>1.44</v>
+      </c>
+      <c r="AV50">
+        <v>1.28</v>
+      </c>
+      <c r="AW50">
+        <v>2.72</v>
+      </c>
+      <c r="AX50">
+        <v>0</v>
+      </c>
+      <c r="AY50">
+        <v>0</v>
+      </c>
+      <c r="AZ50">
+        <v>0</v>
+      </c>
+      <c r="BA50">
+        <v>0</v>
+      </c>
+      <c r="BB50">
+        <v>0</v>
+      </c>
+      <c r="BC50">
+        <v>0</v>
+      </c>
+      <c r="BD50">
+        <v>0</v>
+      </c>
+      <c r="BE50">
+        <v>0</v>
+      </c>
+      <c r="BF50">
         <v>6</v>
-      </c>
-      <c r="T50">
-        <v>0</v>
-      </c>
-      <c r="U50">
-        <v>0</v>
-      </c>
-      <c r="V50">
-        <v>0</v>
-      </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
-      <c r="X50">
-        <v>0</v>
-      </c>
-      <c r="Y50">
-        <v>0</v>
-      </c>
-      <c r="Z50">
-        <v>0</v>
-      </c>
-      <c r="AA50">
-        <v>0</v>
-      </c>
-      <c r="AB50">
-        <v>0</v>
-      </c>
-      <c r="AC50">
-        <v>5.35</v>
-      </c>
-      <c r="AD50">
-        <v>3.37</v>
-      </c>
-      <c r="AE50">
-        <v>1.57</v>
-      </c>
-      <c r="AF50">
-        <v>0</v>
-      </c>
-      <c r="AG50">
-        <v>0</v>
-      </c>
-      <c r="AH50">
-        <v>0</v>
-      </c>
-      <c r="AI50">
-        <v>0</v>
-      </c>
-      <c r="AJ50">
-        <v>2.16</v>
-      </c>
-      <c r="AK50">
-        <v>1.62</v>
-      </c>
-      <c r="AL50">
-        <v>0</v>
-      </c>
-      <c r="AM50">
-        <v>0</v>
-      </c>
-      <c r="AN50">
-        <v>0</v>
-      </c>
-      <c r="AO50">
-        <v>0</v>
-      </c>
-      <c r="AP50">
-        <v>0</v>
-      </c>
-      <c r="AQ50">
-        <v>1.5</v>
-      </c>
-      <c r="AR50">
-        <v>1.5</v>
-      </c>
-      <c r="AS50">
-        <v>1.64</v>
-      </c>
-      <c r="AT50">
-        <v>1.55</v>
-      </c>
-      <c r="AU50">
-        <v>1.3</v>
-      </c>
-      <c r="AV50">
-        <v>1.5</v>
-      </c>
-      <c r="AW50">
-        <v>2.8</v>
-      </c>
-      <c r="AX50">
-        <v>0</v>
-      </c>
-      <c r="AY50">
-        <v>0</v>
-      </c>
-      <c r="AZ50">
-        <v>0</v>
-      </c>
-      <c r="BA50">
-        <v>0</v>
-      </c>
-      <c r="BB50">
-        <v>0</v>
-      </c>
-      <c r="BC50">
-        <v>0</v>
-      </c>
-      <c r="BD50">
-        <v>0</v>
-      </c>
-      <c r="BE50">
-        <v>0</v>
-      </c>
-      <c r="BF50">
-        <v>4</v>
       </c>
       <c r="BG50">
         <v>4</v>
       </c>
       <c r="BH50">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BI50">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BJ50">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BK50">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:63">
@@ -10581,7 +10584,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>3403293</v>
+        <v>3403294</v>
       </c>
       <c r="C51" t="s">
         <v>63</v>
@@ -10596,10 +10599,10 @@
         <v>10</v>
       </c>
       <c r="G51" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H51" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -10611,28 +10614,28 @@
         <v>0</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O51" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P51" t="s">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="Q51">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S51">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="T51">
         <v>0</v>
@@ -10662,13 +10665,13 @@
         <v>0</v>
       </c>
       <c r="AC51">
-        <v>1.59</v>
+        <v>5.35</v>
       </c>
       <c r="AD51">
-        <v>3.62</v>
+        <v>3.37</v>
       </c>
       <c r="AE51">
-        <v>5.5</v>
+        <v>1.57</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -10683,10 +10686,10 @@
         <v>0</v>
       </c>
       <c r="AJ51">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="AK51">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AL51">
         <v>0</v>
@@ -10704,25 +10707,25 @@
         <v>0</v>
       </c>
       <c r="AQ51">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR51">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AS51">
-        <v>2.27</v>
+        <v>1.64</v>
       </c>
       <c r="AT51">
-        <v>1.18</v>
+        <v>1.55</v>
       </c>
       <c r="AU51">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AV51">
-        <v>1.28</v>
+        <v>1.5</v>
       </c>
       <c r="AW51">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="AX51">
         <v>0</v>
@@ -10749,22 +10752,22 @@
         <v>0</v>
       </c>
       <c r="BF51">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BG51">
         <v>4</v>
       </c>
       <c r="BH51">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BI51">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BJ51">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="BK51">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:63">
@@ -10963,7 +10966,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>3403295</v>
+        <v>3403292</v>
       </c>
       <c r="C53" t="s">
         <v>63</v>
@@ -10978,40 +10981,40 @@
         <v>10</v>
       </c>
       <c r="G53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J53">
         <v>1</v>
       </c>
       <c r="K53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L53">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M53">
         <v>1</v>
       </c>
       <c r="N53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O53" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="P53" t="s">
         <v>187</v>
       </c>
       <c r="Q53">
+        <v>2</v>
+      </c>
+      <c r="R53">
         <v>6</v>
-      </c>
-      <c r="R53">
-        <v>2</v>
       </c>
       <c r="S53">
         <v>8</v>
@@ -11044,13 +11047,13 @@
         <v>0</v>
       </c>
       <c r="AC53">
-        <v>1.75</v>
+        <v>4.8</v>
       </c>
       <c r="AD53">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="AE53">
-        <v>4.1</v>
+        <v>1.55</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -11065,10 +11068,10 @@
         <v>0</v>
       </c>
       <c r="AJ53">
-        <v>2.14</v>
+        <v>1.93</v>
       </c>
       <c r="AK53">
-        <v>1.64</v>
+        <v>1.79</v>
       </c>
       <c r="AL53">
         <v>0</v>
@@ -11089,22 +11092,22 @@
         <v>1</v>
       </c>
       <c r="AR53">
-        <v>0.57</v>
+        <v>1.5</v>
       </c>
       <c r="AS53">
-        <v>1.36</v>
+        <v>1.09</v>
       </c>
       <c r="AT53">
-        <v>0.45</v>
+        <v>2.09</v>
       </c>
       <c r="AU53">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="AV53">
-        <v>1.09</v>
+        <v>1.59</v>
       </c>
       <c r="AW53">
-        <v>2.78</v>
+        <v>3.32</v>
       </c>
       <c r="AX53">
         <v>0</v>
@@ -11131,19 +11134,19 @@
         <v>0</v>
       </c>
       <c r="BF53">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BG53">
+        <v>4</v>
+      </c>
+      <c r="BH53">
         <v>3</v>
       </c>
-      <c r="BH53">
-        <v>13</v>
-      </c>
       <c r="BI53">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BJ53">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="BK53">
         <v>9</v>
@@ -11154,7 +11157,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>3403292</v>
+        <v>3403295</v>
       </c>
       <c r="C54" t="s">
         <v>63</v>
@@ -11169,40 +11172,40 @@
         <v>10</v>
       </c>
       <c r="G54" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H54" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54">
         <v>1</v>
       </c>
       <c r="K54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M54">
         <v>1</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O54" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="P54" t="s">
         <v>188</v>
       </c>
       <c r="Q54">
+        <v>6</v>
+      </c>
+      <c r="R54">
         <v>2</v>
-      </c>
-      <c r="R54">
-        <v>6</v>
       </c>
       <c r="S54">
         <v>8</v>
@@ -11235,13 +11238,13 @@
         <v>0</v>
       </c>
       <c r="AC54">
-        <v>4.8</v>
+        <v>1.75</v>
       </c>
       <c r="AD54">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="AE54">
-        <v>1.55</v>
+        <v>4.1</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -11256,10 +11259,10 @@
         <v>0</v>
       </c>
       <c r="AJ54">
-        <v>1.93</v>
+        <v>2.14</v>
       </c>
       <c r="AK54">
-        <v>1.79</v>
+        <v>1.64</v>
       </c>
       <c r="AL54">
         <v>0</v>
@@ -11280,22 +11283,22 @@
         <v>1</v>
       </c>
       <c r="AR54">
-        <v>1.5</v>
+        <v>0.57</v>
       </c>
       <c r="AS54">
+        <v>1.36</v>
+      </c>
+      <c r="AT54">
+        <v>0.45</v>
+      </c>
+      <c r="AU54">
+        <v>1.69</v>
+      </c>
+      <c r="AV54">
         <v>1.09</v>
       </c>
-      <c r="AT54">
-        <v>2.09</v>
-      </c>
-      <c r="AU54">
-        <v>1.73</v>
-      </c>
-      <c r="AV54">
-        <v>1.59</v>
-      </c>
       <c r="AW54">
-        <v>3.32</v>
+        <v>2.78</v>
       </c>
       <c r="AX54">
         <v>0</v>
@@ -11322,19 +11325,19 @@
         <v>0</v>
       </c>
       <c r="BF54">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BG54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH54">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="BI54">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ54">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="BK54">
         <v>9</v>
@@ -13255,7 +13258,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>3403307</v>
+        <v>3403305</v>
       </c>
       <c r="C65" t="s">
         <v>63</v>
@@ -13270,40 +13273,40 @@
         <v>12</v>
       </c>
       <c r="G65" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H65" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L65">
         <v>1</v>
       </c>
       <c r="M65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O65" t="s">
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="Q65">
+        <v>5</v>
+      </c>
+      <c r="R65">
         <v>6</v>
-      </c>
-      <c r="R65">
-        <v>5</v>
       </c>
       <c r="S65">
         <v>11</v>
@@ -13336,13 +13339,13 @@
         <v>0</v>
       </c>
       <c r="AC65">
-        <v>1.61</v>
+        <v>2.25</v>
       </c>
       <c r="AD65">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="AE65">
-        <v>5.2</v>
+        <v>3</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -13357,10 +13360,10 @@
         <v>0</v>
       </c>
       <c r="AJ65">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="AK65">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="AL65">
         <v>0</v>
@@ -13381,22 +13384,22 @@
         <v>2</v>
       </c>
       <c r="AR65">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AS65">
-        <v>1.82</v>
+        <v>1.27</v>
       </c>
       <c r="AT65">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU65">
-        <v>1.64</v>
+        <v>1.52</v>
       </c>
       <c r="AV65">
-        <v>1.11</v>
+        <v>1.55</v>
       </c>
       <c r="AW65">
-        <v>2.75</v>
+        <v>3.07</v>
       </c>
       <c r="AX65">
         <v>0</v>
@@ -13423,22 +13426,22 @@
         <v>0</v>
       </c>
       <c r="BF65">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BG65">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH65">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BI65">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BJ65">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="BK65">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:63">
@@ -13446,7 +13449,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>3403305</v>
+        <v>3403307</v>
       </c>
       <c r="C66" t="s">
         <v>63</v>
@@ -13461,40 +13464,40 @@
         <v>12</v>
       </c>
       <c r="G66" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H66" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L66">
         <v>1</v>
       </c>
       <c r="M66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O66" t="s">
         <v>123</v>
       </c>
       <c r="P66" t="s">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="Q66">
+        <v>6</v>
+      </c>
+      <c r="R66">
         <v>5</v>
-      </c>
-      <c r="R66">
-        <v>6</v>
       </c>
       <c r="S66">
         <v>11</v>
@@ -13527,13 +13530,13 @@
         <v>0</v>
       </c>
       <c r="AC66">
-        <v>2.25</v>
+        <v>1.61</v>
       </c>
       <c r="AD66">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="AE66">
-        <v>3</v>
+        <v>5.2</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -13548,10 +13551,10 @@
         <v>0</v>
       </c>
       <c r="AJ66">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="AK66">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="AL66">
         <v>0</v>
@@ -13572,22 +13575,22 @@
         <v>2</v>
       </c>
       <c r="AR66">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AS66">
-        <v>1.27</v>
+        <v>1.82</v>
       </c>
       <c r="AT66">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AU66">
-        <v>1.52</v>
+        <v>1.64</v>
       </c>
       <c r="AV66">
-        <v>1.55</v>
+        <v>1.11</v>
       </c>
       <c r="AW66">
-        <v>3.07</v>
+        <v>2.75</v>
       </c>
       <c r="AX66">
         <v>0</v>
@@ -13614,22 +13617,22 @@
         <v>0</v>
       </c>
       <c r="BF66">
+        <v>8</v>
+      </c>
+      <c r="BG66">
         <v>4</v>
       </c>
-      <c r="BG66">
-        <v>5</v>
-      </c>
       <c r="BH66">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BI66">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BJ66">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BK66">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:63">
@@ -14783,7 +14786,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>3403314</v>
+        <v>3403312</v>
       </c>
       <c r="C73" t="s">
         <v>63</v>
@@ -14798,31 +14801,31 @@
         <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H73" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
         <v>2</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
       </c>
       <c r="K73">
         <v>2</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O73" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="P73" t="s">
         <v>195</v>
@@ -14831,10 +14834,10 @@
         <v>4</v>
       </c>
       <c r="R73">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S73">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="T73">
         <v>0</v>
@@ -14864,13 +14867,13 @@
         <v>0</v>
       </c>
       <c r="AC73">
-        <v>2.7</v>
+        <v>3.05</v>
       </c>
       <c r="AD73">
         <v>3.3</v>
       </c>
       <c r="AE73">
-        <v>2.34</v>
+        <v>2.13</v>
       </c>
       <c r="AF73">
         <v>0</v>
@@ -14885,10 +14888,10 @@
         <v>0</v>
       </c>
       <c r="AJ73">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="AK73">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="AL73">
         <v>0</v>
@@ -14906,25 +14909,25 @@
         <v>0</v>
       </c>
       <c r="AQ73">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR73">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AS73">
         <v>1.64</v>
       </c>
       <c r="AT73">
-        <v>0.45</v>
+        <v>1.18</v>
       </c>
       <c r="AU73">
-        <v>1.77</v>
+        <v>1.32</v>
       </c>
       <c r="AV73">
-        <v>1.26</v>
+        <v>1.03</v>
       </c>
       <c r="AW73">
-        <v>3.03</v>
+        <v>2.35</v>
       </c>
       <c r="AX73">
         <v>0</v>
@@ -14951,22 +14954,22 @@
         <v>0</v>
       </c>
       <c r="BF73">
+        <v>4</v>
+      </c>
+      <c r="BG73">
+        <v>6</v>
+      </c>
+      <c r="BH73">
+        <v>5</v>
+      </c>
+      <c r="BI73">
+        <v>1</v>
+      </c>
+      <c r="BJ73">
         <v>9</v>
       </c>
-      <c r="BG73">
-        <v>3</v>
-      </c>
-      <c r="BH73">
-        <v>9</v>
-      </c>
-      <c r="BI73">
-        <v>6</v>
-      </c>
-      <c r="BJ73">
-        <v>18</v>
-      </c>
       <c r="BK73">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:63">
@@ -14974,7 +14977,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>3403312</v>
+        <v>3403314</v>
       </c>
       <c r="C74" t="s">
         <v>63</v>
@@ -14989,31 +14992,31 @@
         <v>13</v>
       </c>
       <c r="G74" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H74" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K74">
         <v>2</v>
       </c>
       <c r="L74">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N74">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O74" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="P74" t="s">
         <v>196</v>
@@ -15022,10 +15025,10 @@
         <v>4</v>
       </c>
       <c r="R74">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S74">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="T74">
         <v>0</v>
@@ -15055,13 +15058,13 @@
         <v>0</v>
       </c>
       <c r="AC74">
-        <v>3.05</v>
+        <v>2.7</v>
       </c>
       <c r="AD74">
         <v>3.3</v>
       </c>
       <c r="AE74">
-        <v>2.13</v>
+        <v>2.34</v>
       </c>
       <c r="AF74">
         <v>0</v>
@@ -15076,10 +15079,10 @@
         <v>0</v>
       </c>
       <c r="AJ74">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="AK74">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="AL74">
         <v>0</v>
@@ -15097,25 +15100,25 @@
         <v>0</v>
       </c>
       <c r="AQ74">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR74">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AS74">
         <v>1.64</v>
       </c>
       <c r="AT74">
-        <v>1.18</v>
+        <v>0.45</v>
       </c>
       <c r="AU74">
-        <v>1.32</v>
+        <v>1.77</v>
       </c>
       <c r="AV74">
-        <v>1.03</v>
+        <v>1.26</v>
       </c>
       <c r="AW74">
-        <v>2.35</v>
+        <v>3.03</v>
       </c>
       <c r="AX74">
         <v>0</v>
@@ -15142,22 +15145,22 @@
         <v>0</v>
       </c>
       <c r="BF74">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BG74">
+        <v>3</v>
+      </c>
+      <c r="BH74">
+        <v>9</v>
+      </c>
+      <c r="BI74">
         <v>6</v>
       </c>
-      <c r="BH74">
-        <v>5</v>
-      </c>
-      <c r="BI74">
-        <v>1</v>
-      </c>
       <c r="BJ74">
+        <v>18</v>
+      </c>
+      <c r="BK74">
         <v>9</v>
-      </c>
-      <c r="BK74">
-        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:63">
@@ -17457,7 +17460,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>3403325</v>
+        <v>3403326</v>
       </c>
       <c r="C87" t="s">
         <v>63</v>
@@ -17472,28 +17475,28 @@
         <v>15</v>
       </c>
       <c r="G87" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H87" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87">
         <v>0</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M87">
         <v>0</v>
       </c>
       <c r="N87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O87" t="s">
         <v>136</v>
@@ -17502,13 +17505,13 @@
         <v>78</v>
       </c>
       <c r="Q87">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="R87">
         <v>1</v>
       </c>
       <c r="S87">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="T87">
         <v>0</v>
@@ -17538,13 +17541,13 @@
         <v>0</v>
       </c>
       <c r="AC87">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="AD87">
-        <v>2.95</v>
+        <v>5.25</v>
       </c>
       <c r="AE87">
-        <v>3.35</v>
+        <v>8.5</v>
       </c>
       <c r="AF87">
         <v>0</v>
@@ -17559,10 +17562,10 @@
         <v>0</v>
       </c>
       <c r="AJ87">
-        <v>2.04</v>
+        <v>1.55</v>
       </c>
       <c r="AK87">
-        <v>1.7</v>
+        <v>2.32</v>
       </c>
       <c r="AL87">
         <v>0</v>
@@ -17580,25 +17583,25 @@
         <v>0</v>
       </c>
       <c r="AQ87">
-        <v>1.71</v>
+        <v>2.57</v>
       </c>
       <c r="AR87">
-        <v>0.88</v>
+        <v>0.43</v>
       </c>
       <c r="AS87">
-        <v>1.73</v>
+        <v>2.55</v>
       </c>
       <c r="AT87">
-        <v>1.18</v>
+        <v>0.45</v>
       </c>
       <c r="AU87">
-        <v>1.81</v>
+        <v>2.11</v>
       </c>
       <c r="AV87">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="AW87">
-        <v>3.11</v>
+        <v>3.37</v>
       </c>
       <c r="AX87">
         <v>0</v>
@@ -17625,22 +17628,22 @@
         <v>0</v>
       </c>
       <c r="BF87">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BG87">
         <v>2</v>
       </c>
       <c r="BH87">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BI87">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BJ87">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="BK87">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:63">
@@ -17648,7 +17651,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>3403326</v>
+        <v>3403325</v>
       </c>
       <c r="C88" t="s">
         <v>63</v>
@@ -17663,28 +17666,28 @@
         <v>15</v>
       </c>
       <c r="G88" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H88" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
         <v>2</v>
       </c>
-      <c r="J88">
-        <v>0</v>
-      </c>
-      <c r="K88">
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
         <v>2</v>
-      </c>
-      <c r="L88">
-        <v>3</v>
-      </c>
-      <c r="M88">
-        <v>0</v>
-      </c>
-      <c r="N88">
-        <v>3</v>
       </c>
       <c r="O88" t="s">
         <v>137</v>
@@ -17693,13 +17696,13 @@
         <v>78</v>
       </c>
       <c r="Q88">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="R88">
         <v>1</v>
       </c>
       <c r="S88">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="T88">
         <v>0</v>
@@ -17729,13 +17732,13 @@
         <v>0</v>
       </c>
       <c r="AC88">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="AD88">
-        <v>5.25</v>
+        <v>2.95</v>
       </c>
       <c r="AE88">
-        <v>8.5</v>
+        <v>3.35</v>
       </c>
       <c r="AF88">
         <v>0</v>
@@ -17750,10 +17753,10 @@
         <v>0</v>
       </c>
       <c r="AJ88">
-        <v>1.55</v>
+        <v>2.04</v>
       </c>
       <c r="AK88">
-        <v>2.32</v>
+        <v>1.7</v>
       </c>
       <c r="AL88">
         <v>0</v>
@@ -17771,25 +17774,25 @@
         <v>0</v>
       </c>
       <c r="AQ88">
-        <v>2.57</v>
+        <v>1.71</v>
       </c>
       <c r="AR88">
-        <v>0.43</v>
+        <v>0.88</v>
       </c>
       <c r="AS88">
-        <v>2.55</v>
+        <v>1.73</v>
       </c>
       <c r="AT88">
-        <v>0.45</v>
+        <v>1.18</v>
       </c>
       <c r="AU88">
-        <v>2.11</v>
+        <v>1.81</v>
       </c>
       <c r="AV88">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="AW88">
-        <v>3.37</v>
+        <v>3.11</v>
       </c>
       <c r="AX88">
         <v>0</v>
@@ -17816,22 +17819,22 @@
         <v>0</v>
       </c>
       <c r="BF88">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BG88">
         <v>2</v>
       </c>
       <c r="BH88">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BI88">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BJ88">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="BK88">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:63">
@@ -19218,7 +19221,7 @@
         <v>141</v>
       </c>
       <c r="P96" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19749,7 +19752,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>3403333</v>
+        <v>3403337</v>
       </c>
       <c r="C99" t="s">
         <v>63</v>
@@ -19764,10 +19767,10 @@
         <v>17</v>
       </c>
       <c r="G99" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="H99" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -19779,28 +19782,28 @@
         <v>0</v>
       </c>
       <c r="L99">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M99">
         <v>0</v>
       </c>
       <c r="N99">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O99" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="P99" t="s">
         <v>78</v>
       </c>
       <c r="Q99">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="R99">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="S99">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="T99">
         <v>0</v>
@@ -19830,13 +19833,13 @@
         <v>0</v>
       </c>
       <c r="AC99">
-        <v>2.23</v>
+        <v>2.64</v>
       </c>
       <c r="AD99">
-        <v>2.75</v>
+        <v>3.32</v>
       </c>
       <c r="AE99">
-        <v>3.1</v>
+        <v>2.39</v>
       </c>
       <c r="AF99">
         <v>0</v>
@@ -19851,10 +19854,10 @@
         <v>0</v>
       </c>
       <c r="AJ99">
-        <v>2.23</v>
+        <v>1.83</v>
       </c>
       <c r="AK99">
-        <v>1.58</v>
+        <v>1.83</v>
       </c>
       <c r="AL99">
         <v>0</v>
@@ -19872,25 +19875,25 @@
         <v>0</v>
       </c>
       <c r="AQ99">
-        <v>1.38</v>
+        <v>1.57</v>
       </c>
       <c r="AR99">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AS99">
-        <v>1.36</v>
+        <v>1.64</v>
       </c>
       <c r="AT99">
-        <v>1.09</v>
+        <v>0.73</v>
       </c>
       <c r="AU99">
-        <v>1.71</v>
+        <v>1.91</v>
       </c>
       <c r="AV99">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AW99">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="AX99">
         <v>0</v>
@@ -19917,22 +19920,22 @@
         <v>0</v>
       </c>
       <c r="BF99">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BG99">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BH99">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BI99">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="BJ99">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="BK99">
-        <v>17</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:63">
@@ -19940,7 +19943,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>3403337</v>
+        <v>3403333</v>
       </c>
       <c r="C100" t="s">
         <v>63</v>
@@ -19955,10 +19958,10 @@
         <v>17</v>
       </c>
       <c r="G100" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="H100" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -19970,28 +19973,28 @@
         <v>0</v>
       </c>
       <c r="L100">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M100">
         <v>0</v>
       </c>
       <c r="N100">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O100" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="P100" t="s">
         <v>78</v>
       </c>
       <c r="Q100">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="R100">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S100">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="T100">
         <v>0</v>
@@ -20021,13 +20024,13 @@
         <v>0</v>
       </c>
       <c r="AC100">
-        <v>2.64</v>
+        <v>2.23</v>
       </c>
       <c r="AD100">
-        <v>3.32</v>
+        <v>2.75</v>
       </c>
       <c r="AE100">
-        <v>2.39</v>
+        <v>3.1</v>
       </c>
       <c r="AF100">
         <v>0</v>
@@ -20042,10 +20045,10 @@
         <v>0</v>
       </c>
       <c r="AJ100">
-        <v>1.83</v>
+        <v>2.23</v>
       </c>
       <c r="AK100">
-        <v>1.83</v>
+        <v>1.58</v>
       </c>
       <c r="AL100">
         <v>0</v>
@@ -20063,25 +20066,25 @@
         <v>0</v>
       </c>
       <c r="AQ100">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR100">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AS100">
-        <v>1.64</v>
+        <v>1.36</v>
       </c>
       <c r="AT100">
-        <v>0.73</v>
+        <v>1.09</v>
       </c>
       <c r="AU100">
-        <v>1.91</v>
+        <v>1.71</v>
       </c>
       <c r="AV100">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="AW100">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="AX100">
         <v>0</v>
@@ -20108,22 +20111,22 @@
         <v>0</v>
       </c>
       <c r="BF100">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BG100">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH100">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BI100">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BJ100">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BK100">
-        <v>-1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:63">
@@ -22274,7 +22277,7 @@
         <v>152</v>
       </c>
       <c r="P112" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q112">
         <v>6</v>
@@ -22462,7 +22465,7 @@
         <v>1</v>
       </c>
       <c r="O113" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P113" t="s">
         <v>78</v>
@@ -25288,7 +25291,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>3403365</v>
+        <v>3403367</v>
       </c>
       <c r="C128" t="s">
         <v>63</v>
@@ -25303,40 +25306,40 @@
         <v>22</v>
       </c>
       <c r="G128" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="H128" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K128">
         <v>1</v>
       </c>
       <c r="L128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N128">
         <v>3</v>
       </c>
       <c r="O128" t="s">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="P128" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="Q128">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R128">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S128">
         <v>8</v>
@@ -25369,13 +25372,13 @@
         <v>0</v>
       </c>
       <c r="AC128">
-        <v>2</v>
+        <v>8.5</v>
       </c>
       <c r="AD128">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE128">
-        <v>3.8</v>
+        <v>1.37</v>
       </c>
       <c r="AF128">
         <v>0</v>
@@ -25390,10 +25393,10 @@
         <v>0</v>
       </c>
       <c r="AJ128">
-        <v>2.33</v>
+        <v>2.05</v>
       </c>
       <c r="AK128">
-        <v>1.54</v>
+        <v>1.68</v>
       </c>
       <c r="AL128">
         <v>0</v>
@@ -25414,22 +25417,22 @@
         <v>1.5</v>
       </c>
       <c r="AR128">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AS128">
-        <v>1.64</v>
+        <v>1.36</v>
       </c>
       <c r="AT128">
-        <v>0.45</v>
+        <v>2.09</v>
       </c>
       <c r="AU128">
-        <v>1.39</v>
+        <v>1.68</v>
       </c>
       <c r="AV128">
-        <v>1.1</v>
+        <v>1.62</v>
       </c>
       <c r="AW128">
-        <v>2.49</v>
+        <v>3.3</v>
       </c>
       <c r="AX128">
         <v>0</v>
@@ -25456,22 +25459,22 @@
         <v>0</v>
       </c>
       <c r="BF128">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BG128">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BH128">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BI128">
+        <v>5</v>
+      </c>
+      <c r="BJ128">
         <v>2</v>
       </c>
-      <c r="BJ128">
-        <v>10</v>
-      </c>
       <c r="BK128">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:63">
@@ -25479,7 +25482,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>3403367</v>
+        <v>3403365</v>
       </c>
       <c r="C129" t="s">
         <v>63</v>
@@ -25494,40 +25497,40 @@
         <v>22</v>
       </c>
       <c r="G129" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H129" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K129">
         <v>1</v>
       </c>
       <c r="L129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N129">
         <v>3</v>
       </c>
       <c r="O129" t="s">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="P129" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="Q129">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R129">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S129">
         <v>8</v>
@@ -25560,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="AC129">
-        <v>8.5</v>
+        <v>2</v>
       </c>
       <c r="AD129">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE129">
-        <v>1.37</v>
+        <v>3.8</v>
       </c>
       <c r="AF129">
         <v>0</v>
@@ -25581,10 +25584,10 @@
         <v>0</v>
       </c>
       <c r="AJ129">
-        <v>2.05</v>
+        <v>2.33</v>
       </c>
       <c r="AK129">
-        <v>1.68</v>
+        <v>1.54</v>
       </c>
       <c r="AL129">
         <v>0</v>
@@ -25605,64 +25608,64 @@
         <v>1.5</v>
       </c>
       <c r="AR129">
+        <v>0.5</v>
+      </c>
+      <c r="AS129">
+        <v>1.64</v>
+      </c>
+      <c r="AT129">
+        <v>0.45</v>
+      </c>
+      <c r="AU129">
+        <v>1.39</v>
+      </c>
+      <c r="AV129">
+        <v>1.1</v>
+      </c>
+      <c r="AW129">
+        <v>2.49</v>
+      </c>
+      <c r="AX129">
+        <v>0</v>
+      </c>
+      <c r="AY129">
+        <v>0</v>
+      </c>
+      <c r="AZ129">
+        <v>0</v>
+      </c>
+      <c r="BA129">
+        <v>0</v>
+      </c>
+      <c r="BB129">
+        <v>0</v>
+      </c>
+      <c r="BC129">
+        <v>0</v>
+      </c>
+      <c r="BD129">
+        <v>0</v>
+      </c>
+      <c r="BE129">
+        <v>0</v>
+      </c>
+      <c r="BF129">
+        <v>6</v>
+      </c>
+      <c r="BG129">
+        <v>3</v>
+      </c>
+      <c r="BH129">
+        <v>4</v>
+      </c>
+      <c r="BI129">
         <v>2</v>
       </c>
-      <c r="AS129">
-        <v>1.36</v>
-      </c>
-      <c r="AT129">
-        <v>2.09</v>
-      </c>
-      <c r="AU129">
-        <v>1.68</v>
-      </c>
-      <c r="AV129">
-        <v>1.62</v>
-      </c>
-      <c r="AW129">
-        <v>3.3</v>
-      </c>
-      <c r="AX129">
-        <v>0</v>
-      </c>
-      <c r="AY129">
-        <v>0</v>
-      </c>
-      <c r="AZ129">
-        <v>0</v>
-      </c>
-      <c r="BA129">
-        <v>0</v>
-      </c>
-      <c r="BB129">
-        <v>0</v>
-      </c>
-      <c r="BC129">
-        <v>0</v>
-      </c>
-      <c r="BD129">
-        <v>0</v>
-      </c>
-      <c r="BE129">
-        <v>0</v>
-      </c>
-      <c r="BF129">
-        <v>2</v>
-      </c>
-      <c r="BG129">
-        <v>7</v>
-      </c>
-      <c r="BH129">
-        <v>0</v>
-      </c>
-      <c r="BI129">
+      <c r="BJ129">
+        <v>10</v>
+      </c>
+      <c r="BK129">
         <v>5</v>
-      </c>
-      <c r="BJ129">
-        <v>2</v>
-      </c>
-      <c r="BK129">
-        <v>12</v>
       </c>
     </row>
     <row r="130" spans="1:63">
@@ -25885,10 +25888,10 @@
         <v>0</v>
       </c>
       <c r="J131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L131">
         <v>0</v>
@@ -25903,16 +25906,16 @@
         <v>78</v>
       </c>
       <c r="P131" t="s">
-        <v>93</v>
+        <v>215</v>
       </c>
       <c r="Q131">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R131">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="S131">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="T131">
         <v>0</v>
@@ -26029,22 +26032,22 @@
         <v>0</v>
       </c>
       <c r="BF131">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG131">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BH131">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BI131">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BJ131">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BK131">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:63">
@@ -26052,7 +26055,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>3403364</v>
+        <v>3403368</v>
       </c>
       <c r="C132" t="s">
         <v>63</v>
@@ -26067,10 +26070,10 @@
         <v>22</v>
       </c>
       <c r="G132" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H132" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I132">
         <v>0</v>
@@ -26094,16 +26097,16 @@
         <v>78</v>
       </c>
       <c r="P132" t="s">
-        <v>93</v>
+        <v>201</v>
       </c>
       <c r="Q132">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R132">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S132">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="T132">
         <v>0</v>
@@ -26133,13 +26136,13 @@
         <v>0</v>
       </c>
       <c r="AC132">
-        <v>1.84</v>
+        <v>4.2</v>
       </c>
       <c r="AD132">
-        <v>3.38</v>
+        <v>3.62</v>
       </c>
       <c r="AE132">
-        <v>4.16</v>
+        <v>1.77</v>
       </c>
       <c r="AF132">
         <v>0</v>
@@ -26154,10 +26157,10 @@
         <v>0</v>
       </c>
       <c r="AJ132">
-        <v>2.33</v>
+        <v>1.85</v>
       </c>
       <c r="AK132">
-        <v>1.54</v>
+        <v>1.76</v>
       </c>
       <c r="AL132">
         <v>0</v>
@@ -26178,22 +26181,22 @@
         <v>1.8</v>
       </c>
       <c r="AR132">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AS132">
         <v>1.64</v>
       </c>
       <c r="AT132">
-        <v>1.18</v>
+        <v>1.55</v>
       </c>
       <c r="AU132">
-        <v>2.16</v>
+        <v>1.63</v>
       </c>
       <c r="AV132">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AW132">
-        <v>3.45</v>
+        <v>3.02</v>
       </c>
       <c r="AX132">
         <v>0</v>
@@ -26220,22 +26223,22 @@
         <v>0</v>
       </c>
       <c r="BF132">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG132">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH132">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BI132">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BJ132">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BK132">
-        <v>-1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133" spans="1:63">
@@ -26243,7 +26246,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>3403368</v>
+        <v>3403364</v>
       </c>
       <c r="C133" t="s">
         <v>63</v>
@@ -26258,10 +26261,10 @@
         <v>22</v>
       </c>
       <c r="G133" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H133" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I133">
         <v>0</v>
@@ -26285,16 +26288,16 @@
         <v>78</v>
       </c>
       <c r="P133" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="Q133">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R133">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S133">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T133">
         <v>0</v>
@@ -26324,13 +26327,13 @@
         <v>0</v>
       </c>
       <c r="AC133">
-        <v>4.2</v>
+        <v>1.84</v>
       </c>
       <c r="AD133">
-        <v>3.62</v>
+        <v>3.38</v>
       </c>
       <c r="AE133">
-        <v>1.77</v>
+        <v>4.16</v>
       </c>
       <c r="AF133">
         <v>0</v>
@@ -26345,10 +26348,10 @@
         <v>0</v>
       </c>
       <c r="AJ133">
-        <v>1.85</v>
+        <v>2.33</v>
       </c>
       <c r="AK133">
-        <v>1.76</v>
+        <v>1.54</v>
       </c>
       <c r="AL133">
         <v>0</v>
@@ -26369,22 +26372,22 @@
         <v>1.8</v>
       </c>
       <c r="AR133">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AS133">
         <v>1.64</v>
       </c>
       <c r="AT133">
-        <v>1.55</v>
+        <v>1.18</v>
       </c>
       <c r="AU133">
-        <v>1.63</v>
+        <v>2.16</v>
       </c>
       <c r="AV133">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AW133">
-        <v>3.02</v>
+        <v>3.45</v>
       </c>
       <c r="AX133">
         <v>0</v>
@@ -26411,22 +26414,22 @@
         <v>0</v>
       </c>
       <c r="BF133">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BG133">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH133">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BI133">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BJ133">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BK133">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bosnia and Herzegovina Premier League of Bosnia_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bosnia and Herzegovina Premier League of Bosnia_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK133"/>
+  <dimension ref="A1:BK135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>1.73</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1.64</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU6" t="n">
         <v>1.47</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT7" t="n">
         <v>1</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT9" t="n">
         <v>1.55</v>
@@ -3133,10 +3133,10 @@
         <v>0.5</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU13" t="n">
         <v>1.92</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU15" t="n">
         <v>1.27</v>
@@ -4151,7 +4151,7 @@
         <v>2.36</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU18" t="n">
         <v>1.66</v>
@@ -5572,7 +5572,7 @@
         <v>1.82</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU25" t="n">
         <v>1.41</v>
@@ -6178,7 +6178,7 @@
         <v>1.5</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT28" t="n">
         <v>1.55</v>
@@ -6384,7 +6384,7 @@
         <v>1.27</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU29" t="n">
         <v>1.49</v>
@@ -6790,7 +6790,7 @@
         <v>1.09</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU31" t="n">
         <v>1.45</v>
@@ -6990,10 +6990,10 @@
         <v>0.2</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU32" t="n">
         <v>1.37</v>
@@ -8211,7 +8211,7 @@
         <v>1.64</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU38" t="n">
         <v>2.57</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT39" t="n">
         <v>2.09</v>
@@ -9832,7 +9832,7 @@
         <v>1.33</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT46" t="n">
         <v>1</v>
@@ -10241,7 +10241,7 @@
         <v>1.73</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU48" t="n">
         <v>1.91</v>
@@ -10644,7 +10644,7 @@
         <v>0.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT50" t="n">
         <v>1.18</v>
@@ -11459,7 +11459,7 @@
         <v>1.36</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU54" t="n">
         <v>1.69</v>
@@ -12877,10 +12877,10 @@
         <v>0.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU61" t="n">
         <v>2.39</v>
@@ -14095,7 +14095,7 @@
         <v>0.8</v>
       </c>
       <c r="AS67" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT67" t="n">
         <v>0.45</v>
@@ -14298,7 +14298,7 @@
         <v>0.6</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT68" t="n">
         <v>0.45</v>
@@ -14707,7 +14707,7 @@
         <v>2.36</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU70" t="n">
         <v>1.69</v>
@@ -14907,7 +14907,7 @@
         <v>1.2</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT71" t="n">
         <v>1.18</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT78" t="n">
         <v>1.18</v>
@@ -16531,7 +16531,7 @@
         <v>1.17</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT79" t="n">
         <v>1.09</v>
@@ -16940,7 +16940,7 @@
         <v>1.27</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU81" t="n">
         <v>1.5</v>
@@ -18155,7 +18155,7 @@
         <v>0.43</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT87" t="n">
         <v>0.45</v>
@@ -18967,7 +18967,7 @@
         <v>1</v>
       </c>
       <c r="AS91" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT91" t="n">
         <v>0.73</v>
@@ -19173,7 +19173,7 @@
         <v>1.82</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU92" t="n">
         <v>1.83</v>
@@ -19576,7 +19576,7 @@
         <v>0.57</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT94" t="n">
         <v>0.45</v>
@@ -19782,7 +19782,7 @@
         <v>1.64</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU95" t="n">
         <v>2.57</v>
@@ -22015,7 +22015,7 @@
         <v>1.64</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU106" t="n">
         <v>1.59</v>
@@ -23233,7 +23233,7 @@
         <v>1.64</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU112" t="n">
         <v>1.37</v>
@@ -23433,7 +23433,7 @@
         <v>1.56</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT113" t="n">
         <v>1.27</v>
@@ -23636,7 +23636,7 @@
         <v>1.11</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT114" t="n">
         <v>1.18</v>
@@ -24248,7 +24248,7 @@
         <v>1.09</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU117" t="n">
         <v>1.74</v>
@@ -24857,7 +24857,7 @@
         <v>1.64</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU120" t="n">
         <v>1.82</v>
@@ -25666,7 +25666,7 @@
         <v>1.2</v>
       </c>
       <c r="AS124" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT124" t="n">
         <v>1.09</v>
@@ -26684,7 +26684,7 @@
         <v>1.64</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU129" t="n">
         <v>1.39</v>
@@ -26884,7 +26884,7 @@
         <v>0.8</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT130" t="n">
         <v>0.73</v>
@@ -27548,6 +27548,412 @@
       </c>
       <c r="BK133" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="n">
+        <v>5628237</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Bosnia and Herzegovina Premier League of Bosnia</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45003.45833333334</v>
+      </c>
+      <c r="F134" t="n">
+        <v>23</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Zrinjski</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Igman Konjic</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="n">
+        <v>2</v>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="n">
+        <v>3</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>['-1', '-1']</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>['-1']</t>
+        </is>
+      </c>
+      <c r="Q134" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R134" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S134" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T134" t="n">
+        <v>0</v>
+      </c>
+      <c r="U134" t="n">
+        <v>0</v>
+      </c>
+      <c r="V134" t="n">
+        <v>0</v>
+      </c>
+      <c r="W134" t="n">
+        <v>0</v>
+      </c>
+      <c r="X134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ134" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AR134" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AS134" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AT134" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU134" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AV134" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW134" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AX134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF134" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG134" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH134" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI134" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ134" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK134" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="n">
+        <v>5628236</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Bosnia and Herzegovina Premier League of Bosnia</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45003.6875</v>
+      </c>
+      <c r="F135" t="n">
+        <v>23</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Borac Banja Luka</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Leotar</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="n">
+        <v>2</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N135" t="n">
+        <v>2</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>['-1', '-1']</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q135" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R135" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S135" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T135" t="n">
+        <v>0</v>
+      </c>
+      <c r="U135" t="n">
+        <v>0</v>
+      </c>
+      <c r="V135" t="n">
+        <v>0</v>
+      </c>
+      <c r="W135" t="n">
+        <v>0</v>
+      </c>
+      <c r="X135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ135" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AR135" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AS135" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT135" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AU135" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV135" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW135" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF135" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG135" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH135" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI135" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ135" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK135" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bosnia and Herzegovina Premier League of Bosnia_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bosnia and Herzegovina Premier League of Bosnia_20222023.xlsx
@@ -520,7 +520,7 @@
     <t>['68']</t>
   </si>
   <si>
-    <t>['-1', '-1', '-1']</t>
+    <t>['60', '65', '83']</t>
   </si>
   <si>
     <t>['5', '15']</t>
@@ -27449,16 +27449,16 @@
         <v>168</v>
       </c>
       <c r="P139" t="s">
-        <v>93</v>
+        <v>201</v>
       </c>
       <c r="Q139">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R139">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S139">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T139">
         <v>0</v>
@@ -27575,22 +27575,22 @@
         <v>0</v>
       </c>
       <c r="BF139">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BG139">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH139">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BI139">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BJ139">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="BK139">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bosnia and Herzegovina Premier League of Bosnia_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bosnia and Herzegovina Premier League of Bosnia_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK139"/>
+  <dimension ref="A1:BK145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.09</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>1</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT6" t="n">
         <v>0.42</v>
@@ -1918,7 +1918,7 @@
         <v>2.33</v>
       </c>
       <c r="AT7" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.09</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU10" t="n">
         <v>1.54</v>
@@ -2933,7 +2933,7 @@
         <v>1.83</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU12" t="n">
         <v>2.02</v>
@@ -3133,7 +3133,7 @@
         <v>0.5</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT13" t="n">
         <v>0.42</v>
@@ -3339,7 +3339,7 @@
         <v>1.75</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1.75</v>
       </c>
       <c r="AT16" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU16" t="n">
         <v>3.32</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT17" t="n">
         <v>0.5</v>
@@ -4554,10 +4554,10 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4757,10 +4757,10 @@
         <v>2</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -5366,10 +5366,10 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT24" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU24" t="n">
         <v>1.71</v>
@@ -5772,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT26" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU26" t="n">
         <v>0.97</v>
@@ -6181,7 +6181,7 @@
         <v>2.33</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU28" t="n">
         <v>1.43</v>
@@ -6381,7 +6381,7 @@
         <v>0.25</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT29" t="n">
         <v>0.42</v>
@@ -6584,10 +6584,10 @@
         <v>2</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU30" t="n">
         <v>1.61</v>
@@ -7196,7 +7196,7 @@
         <v>1.83</v>
       </c>
       <c r="AT33" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU33" t="n">
         <v>2</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT34" t="n">
         <v>0.42</v>
@@ -7599,10 +7599,10 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT35" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU35" t="n">
         <v>1.07</v>
@@ -7805,7 +7805,7 @@
         <v>2.25</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU36" t="n">
         <v>1.53</v>
@@ -8005,10 +8005,10 @@
         <v>0.67</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU37" t="n">
         <v>1.63</v>
@@ -8614,10 +8614,10 @@
         <v>1.67</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU40" t="n">
         <v>1.49</v>
@@ -8817,7 +8817,7 @@
         <v>0.67</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT41" t="n">
         <v>0.5</v>
@@ -9023,7 +9023,7 @@
         <v>1.09</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU42" t="n">
         <v>1.62</v>
@@ -9223,7 +9223,7 @@
         <v>1</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT43" t="n">
         <v>0.42</v>
@@ -9426,10 +9426,10 @@
         <v>1</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT44" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU44" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>2.25</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU45" t="n">
         <v>1.65</v>
@@ -9832,10 +9832,10 @@
         <v>1.33</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT46" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU46" t="n">
         <v>2.46</v>
@@ -10441,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT49" t="n">
         <v>2.09</v>
@@ -10647,7 +10647,7 @@
         <v>2.33</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU50" t="n">
         <v>1.44</v>
@@ -10847,10 +10847,10 @@
         <v>1.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU51" t="n">
         <v>1.3</v>
@@ -11050,7 +11050,7 @@
         <v>1</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT52" t="n">
         <v>0.75</v>
@@ -11456,7 +11456,7 @@
         <v>0.57</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT54" t="n">
         <v>0.42</v>
@@ -11662,7 +11662,7 @@
         <v>1.75</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU55" t="n">
         <v>2.58</v>
@@ -11862,7 +11862,7 @@
         <v>1.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT56" t="n">
         <v>0.75</v>
@@ -12065,10 +12065,10 @@
         <v>0.6</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU57" t="n">
         <v>1.29</v>
@@ -12268,7 +12268,7 @@
         <v>2</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT58" t="n">
         <v>2.09</v>
@@ -12471,10 +12471,10 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU59" t="n">
         <v>1.54</v>
@@ -12674,7 +12674,7 @@
         <v>0.75</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT60" t="n">
         <v>0.5</v>
@@ -12877,7 +12877,7 @@
         <v>0.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT61" t="n">
         <v>0.5</v>
@@ -13286,7 +13286,7 @@
         <v>2.25</v>
       </c>
       <c r="AT63" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU63" t="n">
         <v>1.69</v>
@@ -13489,7 +13489,7 @@
         <v>1.75</v>
       </c>
       <c r="AT64" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU64" t="n">
         <v>1.69</v>
@@ -13689,10 +13689,10 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT65" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU65" t="n">
         <v>1.52</v>
@@ -13895,7 +13895,7 @@
         <v>1.75</v>
       </c>
       <c r="AT66" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU66" t="n">
         <v>1.64</v>
@@ -14095,7 +14095,7 @@
         <v>0.8</v>
       </c>
       <c r="AS67" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT67" t="n">
         <v>0.5</v>
@@ -14501,10 +14501,10 @@
         <v>1.4</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU69" t="n">
         <v>1.77</v>
@@ -14907,10 +14907,10 @@
         <v>1.2</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU71" t="n">
         <v>2.29</v>
@@ -15110,10 +15110,10 @@
         <v>0.67</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU72" t="n">
         <v>1.83</v>
@@ -15313,10 +15313,10 @@
         <v>1</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU73" t="n">
         <v>1.32</v>
@@ -15516,7 +15516,7 @@
         <v>0.5</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT74" t="n">
         <v>0.42</v>
@@ -15925,7 +15925,7 @@
         <v>1.75</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU76" t="n">
         <v>2.65</v>
@@ -16328,10 +16328,10 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU78" t="n">
         <v>2.26</v>
@@ -16534,7 +16534,7 @@
         <v>2.33</v>
       </c>
       <c r="AT79" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU79" t="n">
         <v>1.7</v>
@@ -16734,10 +16734,10 @@
         <v>0.83</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT80" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU80" t="n">
         <v>1.72</v>
@@ -16937,7 +16937,7 @@
         <v>0.33</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT81" t="n">
         <v>0.5</v>
@@ -17143,7 +17143,7 @@
         <v>2.25</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU82" t="n">
         <v>1.76</v>
@@ -17343,7 +17343,7 @@
         <v>1.8</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT83" t="n">
         <v>2.09</v>
@@ -17749,10 +17749,10 @@
         <v>1.29</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU85" t="n">
         <v>1.91</v>
@@ -17952,10 +17952,10 @@
         <v>1.17</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU86" t="n">
         <v>1.76</v>
@@ -18155,7 +18155,7 @@
         <v>0.43</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT87" t="n">
         <v>0.42</v>
@@ -18361,7 +18361,7 @@
         <v>1.83</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU88" t="n">
         <v>1.81</v>
@@ -18561,7 +18561,7 @@
         <v>1</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT89" t="n">
         <v>0.75</v>
@@ -18767,7 +18767,7 @@
         <v>1.09</v>
       </c>
       <c r="AT90" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU90" t="n">
         <v>1.66</v>
@@ -18967,7 +18967,7 @@
         <v>1</v>
       </c>
       <c r="AS91" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT91" t="n">
         <v>0.75</v>
@@ -19373,10 +19373,10 @@
         <v>1</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT93" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU93" t="n">
         <v>1.69</v>
@@ -20185,10 +20185,10 @@
         <v>1.43</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU97" t="n">
         <v>1.6</v>
@@ -20388,10 +20388,10 @@
         <v>1</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT98" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU98" t="n">
         <v>1.41</v>
@@ -20591,7 +20591,7 @@
         <v>1</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT99" t="n">
         <v>0.75</v>
@@ -20794,10 +20794,10 @@
         <v>1.25</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT100" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU100" t="n">
         <v>1.71</v>
@@ -21203,7 +21203,7 @@
         <v>1.83</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU102" t="n">
         <v>1.73</v>
@@ -21406,7 +21406,7 @@
         <v>1.75</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU103" t="n">
         <v>1.79</v>
@@ -21809,7 +21809,7 @@
         <v>1.57</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT105" t="n">
         <v>2.09</v>
@@ -22012,7 +22012,7 @@
         <v>0.63</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT106" t="n">
         <v>0.5</v>
@@ -22215,10 +22215,10 @@
         <v>1.38</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU107" t="n">
         <v>1.91</v>
@@ -22624,7 +22624,7 @@
         <v>1.83</v>
       </c>
       <c r="AT109" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU109" t="n">
         <v>1.7</v>
@@ -23027,10 +23027,10 @@
         <v>0.89</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT111" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU111" t="n">
         <v>1.91</v>
@@ -23230,7 +23230,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT112" t="n">
         <v>0.5</v>
@@ -23433,10 +23433,10 @@
         <v>1.56</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU113" t="n">
         <v>2.17</v>
@@ -23639,7 +23639,7 @@
         <v>2.33</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU114" t="n">
         <v>1.74</v>
@@ -23839,10 +23839,10 @@
         <v>1.63</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU115" t="n">
         <v>1.72</v>
@@ -24042,7 +24042,7 @@
         <v>0.44</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT116" t="n">
         <v>0.5</v>
@@ -24448,10 +24448,10 @@
         <v>0.78</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU118" t="n">
         <v>1.51</v>
@@ -24854,7 +24854,7 @@
         <v>0.5</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT120" t="n">
         <v>0.5</v>
@@ -25263,7 +25263,7 @@
         <v>1.75</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU122" t="n">
         <v>1.82</v>
@@ -25463,7 +25463,7 @@
         <v>0.4</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT123" t="n">
         <v>0.42</v>
@@ -25666,10 +25666,10 @@
         <v>1.2</v>
       </c>
       <c r="AS124" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT124" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU124" t="n">
         <v>2.1</v>
@@ -25872,7 +25872,7 @@
         <v>2.25</v>
       </c>
       <c r="AT125" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU125" t="n">
         <v>1.84</v>
@@ -26075,7 +26075,7 @@
         <v>1.75</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU126" t="n">
         <v>2.25</v>
@@ -26478,7 +26478,7 @@
         <v>2</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT128" t="n">
         <v>2.09</v>
@@ -26681,7 +26681,7 @@
         <v>0.5</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT129" t="n">
         <v>0.42</v>
@@ -27090,7 +27090,7 @@
         <v>1.09</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU131" t="n">
         <v>1.72</v>
@@ -27290,10 +27290,10 @@
         <v>1.4</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU132" t="n">
         <v>1.63</v>
@@ -27496,7 +27496,7 @@
         <v>1.75</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU133" t="n">
         <v>2.16</v>
@@ -27696,7 +27696,7 @@
         <v>0.55</v>
       </c>
       <c r="AS134" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT134" t="n">
         <v>0.5</v>
@@ -28714,7 +28714,7 @@
         <v>1.75</v>
       </c>
       <c r="AT139" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU139" t="n">
         <v>2.09</v>
@@ -28766,6 +28766,1224 @@
       </c>
       <c r="BK139" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>5628241</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Bosnia and Herzegovina Premier League of Bosnia</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45016.54166666666</v>
+      </c>
+      <c r="F140" t="n">
+        <v>24</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>FK Tuzla City</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Borac Banja Luka</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>1</v>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="n">
+        <v>2</v>
+      </c>
+      <c r="M140" t="n">
+        <v>2</v>
+      </c>
+      <c r="N140" t="n">
+        <v>4</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>['73', '90+2']</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>['38', '66']</t>
+        </is>
+      </c>
+      <c r="Q140" t="n">
+        <v>3</v>
+      </c>
+      <c r="R140" t="n">
+        <v>4</v>
+      </c>
+      <c r="S140" t="n">
+        <v>7</v>
+      </c>
+      <c r="T140" t="n">
+        <v>0</v>
+      </c>
+      <c r="U140" t="n">
+        <v>0</v>
+      </c>
+      <c r="V140" t="n">
+        <v>0</v>
+      </c>
+      <c r="W140" t="n">
+        <v>0</v>
+      </c>
+      <c r="X140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ140" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS140" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT140" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU140" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV140" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AW140" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF140" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>5628243</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Bosnia and Herzegovina Premier League of Bosnia</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45017.375</v>
+      </c>
+      <c r="F141" t="n">
+        <v>24</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Zrinjski</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Široki Brijeg</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
+        <v>3</v>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="n">
+        <v>4</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>['-1', '-1', '-1']</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>['-1']</t>
+        </is>
+      </c>
+      <c r="Q141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T141" t="n">
+        <v>0</v>
+      </c>
+      <c r="U141" t="n">
+        <v>0</v>
+      </c>
+      <c r="V141" t="n">
+        <v>0</v>
+      </c>
+      <c r="W141" t="n">
+        <v>0</v>
+      </c>
+      <c r="X141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ141" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK141" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ141" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AR141" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS141" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AT141" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AU141" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AV141" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AW141" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AX141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK141" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>5628242</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Bosnia and Herzegovina Premier League of Bosnia</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45017.41666666666</v>
+      </c>
+      <c r="F142" t="n">
+        <v>24</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Igman Konjic</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Posusje</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="n">
+        <v>3</v>
+      </c>
+      <c r="M142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N142" t="n">
+        <v>3</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>['33', '74', '9001']</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q142" t="n">
+        <v>5</v>
+      </c>
+      <c r="R142" t="n">
+        <v>3</v>
+      </c>
+      <c r="S142" t="n">
+        <v>8</v>
+      </c>
+      <c r="T142" t="n">
+        <v>0</v>
+      </c>
+      <c r="U142" t="n">
+        <v>0</v>
+      </c>
+      <c r="V142" t="n">
+        <v>0</v>
+      </c>
+      <c r="W142" t="n">
+        <v>0</v>
+      </c>
+      <c r="X142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ142" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR142" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS142" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT142" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AU142" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW142" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AX142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF142" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG142" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>5628240</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Bosnia and Herzegovina Premier League of Bosnia</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45017.41666666666</v>
+      </c>
+      <c r="F143" t="n">
+        <v>24</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Leotar</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Željezničar</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N143" t="n">
+        <v>1</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
+        <v>5</v>
+      </c>
+      <c r="R143" t="n">
+        <v>3</v>
+      </c>
+      <c r="S143" t="n">
+        <v>8</v>
+      </c>
+      <c r="T143" t="n">
+        <v>0</v>
+      </c>
+      <c r="U143" t="n">
+        <v>0</v>
+      </c>
+      <c r="V143" t="n">
+        <v>0</v>
+      </c>
+      <c r="W143" t="n">
+        <v>0</v>
+      </c>
+      <c r="X143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ143" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR143" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS143" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT143" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AU143" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AV143" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW143" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AX143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF143" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG143" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH143" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ143" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>5628239</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Bosnia and Herzegovina Premier League of Bosnia</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45018.41666666666</v>
+      </c>
+      <c r="F144" t="n">
+        <v>24</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Sloga Doboj</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Velež</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>1</v>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" t="n">
+        <v>2</v>
+      </c>
+      <c r="N144" t="n">
+        <v>2</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>['38', '66']</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
+        <v>4</v>
+      </c>
+      <c r="R144" t="n">
+        <v>1</v>
+      </c>
+      <c r="S144" t="n">
+        <v>5</v>
+      </c>
+      <c r="T144" t="n">
+        <v>0</v>
+      </c>
+      <c r="U144" t="n">
+        <v>0</v>
+      </c>
+      <c r="V144" t="n">
+        <v>0</v>
+      </c>
+      <c r="W144" t="n">
+        <v>0</v>
+      </c>
+      <c r="X144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ144" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR144" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS144" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT144" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU144" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV144" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW144" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF144" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>5628238</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Bosnia and Herzegovina Premier League of Bosnia</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45018.45833333334</v>
+      </c>
+      <c r="F145" t="n">
+        <v>24</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Sloboda Tuzla</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Sarajevo</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>2</v>
+      </c>
+      <c r="J145" t="n">
+        <v>2</v>
+      </c>
+      <c r="K145" t="n">
+        <v>4</v>
+      </c>
+      <c r="L145" t="n">
+        <v>2</v>
+      </c>
+      <c r="M145" t="n">
+        <v>3</v>
+      </c>
+      <c r="N145" t="n">
+        <v>5</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>['8', '14']</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>['33', '35', '73']</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
+        <v>1</v>
+      </c>
+      <c r="R145" t="n">
+        <v>10</v>
+      </c>
+      <c r="S145" t="n">
+        <v>11</v>
+      </c>
+      <c r="T145" t="n">
+        <v>0</v>
+      </c>
+      <c r="U145" t="n">
+        <v>0</v>
+      </c>
+      <c r="V145" t="n">
+        <v>0</v>
+      </c>
+      <c r="W145" t="n">
+        <v>0</v>
+      </c>
+      <c r="X145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR145" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS145" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT145" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AW145" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF145" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG145" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH145" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ145" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK145" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bosnia and Herzegovina Premier League of Bosnia_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bosnia and Herzegovina Premier League of Bosnia_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK145"/>
+  <dimension ref="A1:BK146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT16" t="n">
         <v>0.92</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT19" t="n">
         <v>0.75</v>
@@ -4963,7 +4963,7 @@
         <v>1.09</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AU22" t="n">
         <v>0.99</v>
@@ -5975,7 +5975,7 @@
         <v>0.5</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT27" t="n">
         <v>0.5</v>
@@ -7399,7 +7399,7 @@
         <v>1.5</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AU34" t="n">
         <v>1.47</v>
@@ -8208,7 +8208,7 @@
         <v>0.67</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT38" t="n">
         <v>0.42</v>
@@ -9226,7 +9226,7 @@
         <v>1.5</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AU43" t="n">
         <v>1.24</v>
@@ -11659,7 +11659,7 @@
         <v>1.25</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT55" t="n">
         <v>1.08</v>
@@ -13083,7 +13083,7 @@
         <v>1.83</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AU62" t="n">
         <v>1.84</v>
@@ -14301,7 +14301,7 @@
         <v>2.33</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AU68" t="n">
         <v>1.52</v>
@@ -15519,7 +15519,7 @@
         <v>1.75</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AU74" t="n">
         <v>1.77</v>
@@ -15922,7 +15922,7 @@
         <v>1.4</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT76" t="n">
         <v>1.25</v>
@@ -18158,7 +18158,7 @@
         <v>2.62</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AU87" t="n">
         <v>2.11</v>
@@ -19779,7 +19779,7 @@
         <v>0.71</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT95" t="n">
         <v>0.5</v>
@@ -21000,7 +21000,7 @@
         <v>2.25</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AU101" t="n">
         <v>1.62</v>
@@ -22421,7 +22421,7 @@
         <v>1.75</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AU108" t="n">
         <v>1.79</v>
@@ -24651,7 +24651,7 @@
         <v>1.75</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT119" t="n">
         <v>2.09</v>
@@ -25466,7 +25466,7 @@
         <v>1.25</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AU123" t="n">
         <v>1.47</v>
@@ -26072,7 +26072,7 @@
         <v>1.44</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT126" t="n">
         <v>1.42</v>
@@ -27493,7 +27493,7 @@
         <v>1</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT133" t="n">
         <v>1.33</v>
@@ -28105,7 +28105,7 @@
         <v>1.83</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AU136" t="n">
         <v>1.68</v>
@@ -28711,7 +28711,7 @@
         <v>1.09</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT139" t="n">
         <v>0.92</v>
@@ -29984,6 +29984,209 @@
       </c>
       <c r="BK145" t="n">
         <v>18</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>5628245</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Bosnia and Herzegovina Premier League of Bosnia</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45023.625</v>
+      </c>
+      <c r="F146" t="n">
+        <v>25</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Sarajevo</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Sloga Doboj</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="n">
+        <v>2</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>['-1']</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>['-1']</t>
+        </is>
+      </c>
+      <c r="Q146" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R146" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S146" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T146" t="n">
+        <v>0</v>
+      </c>
+      <c r="U146" t="n">
+        <v>0</v>
+      </c>
+      <c r="V146" t="n">
+        <v>0</v>
+      </c>
+      <c r="W146" t="n">
+        <v>0</v>
+      </c>
+      <c r="X146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT146" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AU146" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AX146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF146" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG146" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH146" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ146" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK146" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bosnia and Herzegovina Premier League of Bosnia_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bosnia and Herzegovina Premier League of Bosnia_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK146"/>
+  <dimension ref="A1:BK150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT2" t="n">
         <v>1.33</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1.5</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU6" t="n">
         <v>1.47</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AT7" t="n">
         <v>1.17</v>
@@ -2121,7 +2121,7 @@
         <v>2.25</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT10" t="n">
         <v>1.25</v>
@@ -2930,7 +2930,7 @@
         <v>3</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT12" t="n">
         <v>1.08</v>
@@ -3136,7 +3136,7 @@
         <v>2.62</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU13" t="n">
         <v>1.92</v>
@@ -3336,7 +3336,7 @@
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT14" t="n">
         <v>1.42</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AT15" t="n">
         <v>0.5</v>
@@ -3948,7 +3948,7 @@
         <v>1.25</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>2.25</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU18" t="n">
         <v>1.66</v>
@@ -4354,7 +4354,7 @@
         <v>1.69</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU19" t="n">
         <v>2.88</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT22" t="n">
         <v>0.46</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU23" t="n">
         <v>2.07</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT25" t="n">
         <v>0.5</v>
@@ -5978,7 +5978,7 @@
         <v>1.69</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU27" t="n">
         <v>2.39</v>
@@ -6178,7 +6178,7 @@
         <v>1.5</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AT28" t="n">
         <v>1.42</v>
@@ -6384,7 +6384,7 @@
         <v>1.25</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU29" t="n">
         <v>1.49</v>
@@ -6787,7 +6787,7 @@
         <v>0.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT31" t="n">
         <v>0.5</v>
@@ -6990,10 +6990,10 @@
         <v>0.2</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU32" t="n">
         <v>1.37</v>
@@ -7193,7 +7193,7 @@
         <v>1.5</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT33" t="n">
         <v>1.17</v>
@@ -8211,7 +8211,7 @@
         <v>1.69</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU38" t="n">
         <v>2.57</v>
@@ -8411,10 +8411,10 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AT39" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU39" t="n">
         <v>1.37</v>
@@ -8820,7 +8820,7 @@
         <v>1.5</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU41" t="n">
         <v>1.67</v>
@@ -9020,7 +9020,7 @@
         <v>1</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT42" t="n">
         <v>1.42</v>
@@ -10035,10 +10035,10 @@
         <v>1.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU47" t="n">
         <v>1.57</v>
@@ -10238,7 +10238,7 @@
         <v>0.67</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT48" t="n">
         <v>0.5</v>
@@ -10444,7 +10444,7 @@
         <v>1.5</v>
       </c>
       <c r="AT49" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU49" t="n">
         <v>1.5</v>
@@ -10644,7 +10644,7 @@
         <v>0.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AT50" t="n">
         <v>1.33</v>
@@ -11053,7 +11053,7 @@
         <v>1.5</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU52" t="n">
         <v>1.79</v>
@@ -11253,10 +11253,10 @@
         <v>1.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT53" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU53" t="n">
         <v>1.73</v>
@@ -11459,7 +11459,7 @@
         <v>1.5</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU54" t="n">
         <v>1.69</v>
@@ -11865,7 +11865,7 @@
         <v>1.5</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU56" t="n">
         <v>1.84</v>
@@ -12271,7 +12271,7 @@
         <v>1.5</v>
       </c>
       <c r="AT58" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU58" t="n">
         <v>1.8</v>
@@ -12677,7 +12677,7 @@
         <v>1.75</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU60" t="n">
         <v>1.44</v>
@@ -13080,7 +13080,7 @@
         <v>0.75</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT62" t="n">
         <v>0.46</v>
@@ -13486,7 +13486,7 @@
         <v>1</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT64" t="n">
         <v>1.17</v>
@@ -13892,7 +13892,7 @@
         <v>1.2</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT66" t="n">
         <v>0.92</v>
@@ -14098,7 +14098,7 @@
         <v>2.62</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU67" t="n">
         <v>2.37</v>
@@ -14298,7 +14298,7 @@
         <v>0.6</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AT68" t="n">
         <v>0.46</v>
@@ -15719,10 +15719,10 @@
         <v>1.5</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT75" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU75" t="n">
         <v>1.85</v>
@@ -16125,10 +16125,10 @@
         <v>1.2</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU77" t="n">
         <v>1.6</v>
@@ -16531,7 +16531,7 @@
         <v>1.17</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AT79" t="n">
         <v>0.92</v>
@@ -17346,7 +17346,7 @@
         <v>1.75</v>
       </c>
       <c r="AT83" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU83" t="n">
         <v>1.91</v>
@@ -17546,10 +17546,10 @@
         <v>0.67</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU84" t="n">
         <v>1.73</v>
@@ -18358,7 +18358,7 @@
         <v>0.88</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT88" t="n">
         <v>1.33</v>
@@ -18564,7 +18564,7 @@
         <v>1.5</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU89" t="n">
         <v>1.35</v>
@@ -18764,7 +18764,7 @@
         <v>0.71</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT90" t="n">
         <v>1.17</v>
@@ -18970,7 +18970,7 @@
         <v>2.62</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU91" t="n">
         <v>2.14</v>
@@ -19170,10 +19170,10 @@
         <v>0.5</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU92" t="n">
         <v>1.83</v>
@@ -19576,10 +19576,10 @@
         <v>0.57</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU94" t="n">
         <v>1.72</v>
@@ -19985,7 +19985,7 @@
         <v>2.25</v>
       </c>
       <c r="AT96" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU96" t="n">
         <v>1.76</v>
@@ -20594,7 +20594,7 @@
         <v>1.75</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU99" t="n">
         <v>1.91</v>
@@ -21200,7 +21200,7 @@
         <v>1.14</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT102" t="n">
         <v>1.25</v>
@@ -21403,7 +21403,7 @@
         <v>1.13</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT103" t="n">
         <v>1.08</v>
@@ -21606,10 +21606,10 @@
         <v>0.5</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU104" t="n">
         <v>1.7</v>
@@ -21812,7 +21812,7 @@
         <v>1.25</v>
       </c>
       <c r="AT105" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU105" t="n">
         <v>1.57</v>
@@ -22418,7 +22418,7 @@
         <v>0.33</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT108" t="n">
         <v>0.46</v>
@@ -22621,7 +22621,7 @@
         <v>1.22</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT109" t="n">
         <v>0.92</v>
@@ -22827,7 +22827,7 @@
         <v>2.25</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU110" t="n">
         <v>1.72</v>
@@ -23636,7 +23636,7 @@
         <v>1.11</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AT114" t="n">
         <v>1.08</v>
@@ -24045,7 +24045,7 @@
         <v>1.5</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU116" t="n">
         <v>1.6</v>
@@ -24245,10 +24245,10 @@
         <v>0.44</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU117" t="n">
         <v>1.74</v>
@@ -24654,7 +24654,7 @@
         <v>1.69</v>
       </c>
       <c r="AT119" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU119" t="n">
         <v>2.44</v>
@@ -25057,10 +25057,10 @@
         <v>0.5</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU121" t="n">
         <v>1.71</v>
@@ -25260,7 +25260,7 @@
         <v>1.4</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT122" t="n">
         <v>1.25</v>
@@ -26275,10 +26275,10 @@
         <v>1.89</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT127" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU127" t="n">
         <v>1.78</v>
@@ -26481,7 +26481,7 @@
         <v>1.5</v>
       </c>
       <c r="AT128" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU128" t="n">
         <v>1.68</v>
@@ -26684,7 +26684,7 @@
         <v>1.5</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU129" t="n">
         <v>1.39</v>
@@ -26884,10 +26884,10 @@
         <v>0.8</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU130" t="n">
         <v>1.81</v>
@@ -27087,7 +27087,7 @@
         <v>1</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT131" t="n">
         <v>1.08</v>
@@ -27899,10 +27899,10 @@
         <v>0.45</v>
       </c>
       <c r="AS135" t="n">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU135" t="n">
         <v>1.76</v>
@@ -28102,7 +28102,7 @@
         <v>0.45</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT136" t="n">
         <v>0.46</v>
@@ -28308,7 +28308,7 @@
         <v>2.25</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU137" t="n">
         <v>1.86</v>
@@ -28508,10 +28508,10 @@
         <v>0.45</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU138" t="n">
         <v>1.7</v>
@@ -30187,6 +30187,818 @@
       </c>
       <c r="BK146" t="n">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>5628244</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Bosnia and Herzegovina Premier League of Bosnia</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45024.41666666666</v>
+      </c>
+      <c r="F147" t="n">
+        <v>25</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Posusje</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Sloboda Tuzla</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>2</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>2</v>
+      </c>
+      <c r="L147" t="n">
+        <v>2</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N147" t="n">
+        <v>2</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>['15', '40']</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q147" t="n">
+        <v>3</v>
+      </c>
+      <c r="R147" t="n">
+        <v>6</v>
+      </c>
+      <c r="S147" t="n">
+        <v>9</v>
+      </c>
+      <c r="T147" t="n">
+        <v>0</v>
+      </c>
+      <c r="U147" t="n">
+        <v>0</v>
+      </c>
+      <c r="V147" t="n">
+        <v>0</v>
+      </c>
+      <c r="W147" t="n">
+        <v>0</v>
+      </c>
+      <c r="X147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ147" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR147" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT147" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AU147" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV147" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AW147" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AX147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF147" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG147" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH147" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI147" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ147" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK147" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>5628247</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Bosnia and Herzegovina Premier League of Bosnia</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F148" t="n">
+        <v>25</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Velež</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Leotar</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="n">
+        <v>2</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N148" t="n">
+        <v>2</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>['17', '70']</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q148" t="n">
+        <v>6</v>
+      </c>
+      <c r="R148" t="n">
+        <v>3</v>
+      </c>
+      <c r="S148" t="n">
+        <v>9</v>
+      </c>
+      <c r="T148" t="n">
+        <v>0</v>
+      </c>
+      <c r="U148" t="n">
+        <v>0</v>
+      </c>
+      <c r="V148" t="n">
+        <v>0</v>
+      </c>
+      <c r="W148" t="n">
+        <v>0</v>
+      </c>
+      <c r="X148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ148" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR148" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AS148" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AT148" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AU148" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV148" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW148" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF148" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG148" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH148" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI148" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ148" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK148" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>5628249</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Bosnia and Herzegovina Premier League of Bosnia</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45024.5625</v>
+      </c>
+      <c r="F149" t="n">
+        <v>25</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Borac Banja Luka</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Zrinjski</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" t="n">
+        <v>3</v>
+      </c>
+      <c r="N149" t="n">
+        <v>3</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>['25', '65', '85']</t>
+        </is>
+      </c>
+      <c r="Q149" t="n">
+        <v>5</v>
+      </c>
+      <c r="R149" t="n">
+        <v>3</v>
+      </c>
+      <c r="S149" t="n">
+        <v>8</v>
+      </c>
+      <c r="T149" t="n">
+        <v>0</v>
+      </c>
+      <c r="U149" t="n">
+        <v>0</v>
+      </c>
+      <c r="V149" t="n">
+        <v>0</v>
+      </c>
+      <c r="W149" t="n">
+        <v>0</v>
+      </c>
+      <c r="X149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ149" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR149" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AS149" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AT149" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AU149" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AX149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF149" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG149" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH149" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI149" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ149" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK149" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>5628246</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Bosnia and Herzegovina Premier League of Bosnia</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45024.625</v>
+      </c>
+      <c r="F150" t="n">
+        <v>25</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Željezničar</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>FK Tuzla City</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>1</v>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="n">
+        <v>1</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
+        <v>13</v>
+      </c>
+      <c r="R150" t="n">
+        <v>1</v>
+      </c>
+      <c r="S150" t="n">
+        <v>14</v>
+      </c>
+      <c r="T150" t="n">
+        <v>0</v>
+      </c>
+      <c r="U150" t="n">
+        <v>0</v>
+      </c>
+      <c r="V150" t="n">
+        <v>0</v>
+      </c>
+      <c r="W150" t="n">
+        <v>0</v>
+      </c>
+      <c r="X150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ150" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR150" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS150" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT150" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AU150" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV150" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW150" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF150" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG150" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH150" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI150" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ150" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK150" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bosnia and Herzegovina Premier League of Bosnia_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bosnia and Herzegovina Premier League of Bosnia_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK150"/>
+  <dimension ref="A1:BK151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AT8" t="n">
         <v>0.46</v>
@@ -3542,7 +3542,7 @@
         <v>2.15</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU15" t="n">
         <v>1.27</v>
@@ -4148,7 +4148,7 @@
         <v>0.33</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AT18" t="n">
         <v>0.38</v>
@@ -5572,7 +5572,7 @@
         <v>1.85</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU25" t="n">
         <v>1.41</v>
@@ -6790,7 +6790,7 @@
         <v>1.25</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU31" t="n">
         <v>1.45</v>
@@ -7802,7 +7802,7 @@
         <v>0.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AT36" t="n">
         <v>1.33</v>
@@ -9629,7 +9629,7 @@
         <v>1.33</v>
       </c>
       <c r="AS45" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AT45" t="n">
         <v>1.25</v>
@@ -10241,7 +10241,7 @@
         <v>1.69</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU48" t="n">
         <v>1.91</v>
@@ -12880,7 +12880,7 @@
         <v>2.62</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU61" t="n">
         <v>2.39</v>
@@ -13283,7 +13283,7 @@
         <v>1.5</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AT63" t="n">
         <v>0.92</v>
@@ -14704,10 +14704,10 @@
         <v>0.4</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU70" t="n">
         <v>1.69</v>
@@ -16940,7 +16940,7 @@
         <v>1.25</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU81" t="n">
         <v>1.5</v>
@@ -17140,7 +17140,7 @@
         <v>1.67</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AT82" t="n">
         <v>1.42</v>
@@ -19782,7 +19782,7 @@
         <v>1.69</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU95" t="n">
         <v>2.57</v>
@@ -19982,7 +19982,7 @@
         <v>1.67</v>
       </c>
       <c r="AS96" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AT96" t="n">
         <v>2.17</v>
@@ -20997,7 +20997,7 @@
         <v>0.38</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AT101" t="n">
         <v>0.46</v>
@@ -22015,7 +22015,7 @@
         <v>1.5</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU106" t="n">
         <v>1.59</v>
@@ -22824,7 +22824,7 @@
         <v>0.89</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AT110" t="n">
         <v>0.92</v>
@@ -23233,7 +23233,7 @@
         <v>1.5</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU112" t="n">
         <v>1.37</v>
@@ -24857,7 +24857,7 @@
         <v>1.75</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU120" t="n">
         <v>1.82</v>
@@ -25869,7 +25869,7 @@
         <v>0.8</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AT125" t="n">
         <v>1.17</v>
@@ -27699,7 +27699,7 @@
         <v>2.62</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU134" t="n">
         <v>2.1</v>
@@ -28305,7 +28305,7 @@
         <v>0.73</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AT137" t="n">
         <v>0.92</v>
@@ -29179,7 +29179,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>5628242</v>
+        <v>5628240</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -29199,12 +29199,12 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Igman Konjic</t>
+          <t>Leotar</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Posusje</t>
+          <t>Željezničar</t>
         </is>
       </c>
       <c r="I142" t="n">
@@ -29217,17 +29217,17 @@
         <v>1</v>
       </c>
       <c r="L142" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M142" t="n">
         <v>0</v>
       </c>
       <c r="N142" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>['33', '74', '9001']</t>
+          <t>['32']</t>
         </is>
       </c>
       <c r="P142" t="inlineStr">
@@ -29272,13 +29272,13 @@
         <v>0</v>
       </c>
       <c r="AC142" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="AD142" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AE142" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="AF142" t="n">
         <v>0</v>
@@ -29293,10 +29293,10 @@
         <v>0</v>
       </c>
       <c r="AJ142" t="n">
-        <v>1.89</v>
+        <v>2.3</v>
       </c>
       <c r="AK142" t="n">
-        <v>1.72</v>
+        <v>1.52</v>
       </c>
       <c r="AL142" t="n">
         <v>0</v>
@@ -29314,25 +29314,25 @@
         <v>0</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.36</v>
+        <v>1.64</v>
       </c>
       <c r="AR142" t="n">
-        <v>1</v>
+        <v>1.55</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.92</v>
+        <v>1.42</v>
       </c>
       <c r="AU142" t="n">
-        <v>1.58</v>
+        <v>1.93</v>
       </c>
       <c r="AV142" t="n">
-        <v>1.22</v>
+        <v>1.44</v>
       </c>
       <c r="AW142" t="n">
-        <v>2.8</v>
+        <v>3.37</v>
       </c>
       <c r="AX142" t="n">
         <v>0</v>
@@ -29359,22 +29359,22 @@
         <v>0</v>
       </c>
       <c r="BF142" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BG142" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BH142" t="n">
         <v>4</v>
       </c>
       <c r="BI142" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK142" t="n">
         <v>3</v>
-      </c>
-      <c r="BJ142" t="n">
-        <v>10</v>
-      </c>
-      <c r="BK142" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="143">
@@ -29382,7 +29382,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>5628240</v>
+        <v>5628242</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -29402,12 +29402,12 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Leotar</t>
+          <t>Igman Konjic</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Željezničar</t>
+          <t>Posusje</t>
         </is>
       </c>
       <c r="I143" t="n">
@@ -29420,17 +29420,17 @@
         <v>1</v>
       </c>
       <c r="L143" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M143" t="n">
         <v>0</v>
       </c>
       <c r="N143" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>['32']</t>
+          <t>['33', '74', '9001']</t>
         </is>
       </c>
       <c r="P143" t="inlineStr">
@@ -29475,13 +29475,13 @@
         <v>0</v>
       </c>
       <c r="AC143" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="AD143" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AE143" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="AF143" t="n">
         <v>0</v>
@@ -29496,10 +29496,10 @@
         <v>0</v>
       </c>
       <c r="AJ143" t="n">
-        <v>2.3</v>
+        <v>1.89</v>
       </c>
       <c r="AK143" t="n">
-        <v>1.52</v>
+        <v>1.72</v>
       </c>
       <c r="AL143" t="n">
         <v>0</v>
@@ -29517,25 +29517,25 @@
         <v>0</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1.64</v>
+        <v>1.36</v>
       </c>
       <c r="AR143" t="n">
-        <v>1.55</v>
+        <v>1</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.42</v>
+        <v>0.92</v>
       </c>
       <c r="AU143" t="n">
-        <v>1.93</v>
+        <v>1.58</v>
       </c>
       <c r="AV143" t="n">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="AW143" t="n">
-        <v>3.37</v>
+        <v>2.8</v>
       </c>
       <c r="AX143" t="n">
         <v>0</v>
@@ -29562,22 +29562,22 @@
         <v>0</v>
       </c>
       <c r="BF143" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BG143" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BH143" t="n">
         <v>4</v>
       </c>
       <c r="BI143" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BJ143" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BK143" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144">
@@ -30999,6 +30999,209 @@
       </c>
       <c r="BK150" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>5628248</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Bosnia and Herzegovina Premier League of Bosnia</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45026.54166666666</v>
+      </c>
+      <c r="F151" t="n">
+        <v>25</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Široki Brijeg</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Igman Konjic</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q151" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R151" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S151" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T151" t="n">
+        <v>0</v>
+      </c>
+      <c r="U151" t="n">
+        <v>0</v>
+      </c>
+      <c r="V151" t="n">
+        <v>0</v>
+      </c>
+      <c r="W151" t="n">
+        <v>0</v>
+      </c>
+      <c r="X151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ151" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR151" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS151" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AT151" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AU151" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV151" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW151" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF151" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG151" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH151" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI151" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ151" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK151" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
